--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,6 +658,256 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.8591800332069397</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5508013963699341</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9067742824554443</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-9.02699064338028</v>
+      </c>
+      <c r="E10" t="n">
+        <v>81.86252117156982</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8246405124664307</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>pixel_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13.68667793273926</v>
+      </c>
+      <c r="B11" t="n">
+        <v>255.2538299560547</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.75908088684082</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-126.136394289045</v>
+      </c>
+      <c r="E11" t="n">
+        <v>97.68024444580078</v>
+      </c>
+      <c r="F11" t="n">
+        <v>234.6860809326172</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>pixel_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4.900317192077637</v>
+      </c>
+      <c r="B12" t="n">
+        <v>47.79477310180664</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.952849388122559</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-29.61612463675378</v>
+      </c>
+      <c r="E12" t="n">
+        <v>50.88606476783752</v>
+      </c>
+      <c r="F12" t="n">
+        <v>40.5074348449707</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7.573990821838379</v>
+      </c>
+      <c r="B13" t="n">
+        <v>68.486083984375</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.593135833740234</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-528.1738565977068</v>
+      </c>
+      <c r="E13" t="n">
+        <v>280.2968287467957</v>
+      </c>
+      <c r="F13" t="n">
+        <v>67.80266571044922</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9.207357406616211</v>
+      </c>
+      <c r="B14" t="n">
+        <v>98.81269836425781</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.262160301208496</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-78.38303408075309</v>
+      </c>
+      <c r="E14" t="n">
+        <v>64.0146005153656</v>
+      </c>
+      <c r="F14" t="n">
+        <v>97.44454956054688</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8.819511413574219</v>
+      </c>
+      <c r="B15" t="n">
+        <v>65.82783508300781</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.879039764404297</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-481.3146752049517</v>
+      </c>
+      <c r="E15" t="n">
+        <v>297.8985786437988</v>
+      </c>
+      <c r="F15" t="n">
+        <v>78.98422241210938</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7.366075038909912</v>
+      </c>
+      <c r="B16" t="n">
+        <v>87.09483337402344</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.453351020812988</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-56.71253700786922</v>
+      </c>
+      <c r="E16" t="n">
+        <v>71.18945777416229</v>
+      </c>
+      <c r="F16" t="n">
+        <v>83.03874969482422</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7.611695766448975</v>
+      </c>
+      <c r="B17" t="n">
+        <v>108.9543685913086</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.657582759857178</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-164.9280228617483</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.00476980209351</v>
+      </c>
+      <c r="F17" t="n">
+        <v>102.6292266845703</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>pixel_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9.026801109313965</v>
+      </c>
+      <c r="B18" t="n">
+        <v>103.0807876586914</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9.048116683959961</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-263.7110610477961</v>
+      </c>
+      <c r="E18" t="n">
+        <v>97.71897673606873</v>
+      </c>
+      <c r="F18" t="n">
+        <v>106.6359634399414</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>pixel_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7.804959297180176</v>
+      </c>
+      <c r="B19" t="n">
+        <v>117.6996917724609</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7.839239597320557</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-193.7585207744976</v>
+      </c>
+      <c r="E19" t="n">
+        <v>93.86273860931396</v>
+      </c>
+      <c r="F19" t="n">
+        <v>109.7511978149414</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>pixel_wise_CNN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -908,6 +908,231 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4.592772006988525</v>
+      </c>
+      <c r="B20" t="n">
+        <v>35.66100311279297</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.731794834136963</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-16.51728014744786</v>
+      </c>
+      <c r="E20" t="n">
+        <v>97.39878177642822</v>
+      </c>
+      <c r="F20" t="n">
+        <v>22.38988304138184</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>pixel_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4.561172962188721</v>
+      </c>
+      <c r="B21" t="n">
+        <v>36.11415863037109</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.70729923248291</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-16.33638234953689</v>
+      </c>
+      <c r="E21" t="n">
+        <v>96.56686186790466</v>
+      </c>
+      <c r="F21" t="n">
+        <v>22.15866661071777</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>pixel_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7.79331111907959</v>
+      </c>
+      <c r="B22" t="n">
+        <v>62.7302360534668</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.824318885803223</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-146.738879056736</v>
+      </c>
+      <c r="E22" t="n">
+        <v>98.46485555171967</v>
+      </c>
+      <c r="F22" t="n">
+        <v>72.01076507568359</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>pixel_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7.730414867401123</v>
+      </c>
+      <c r="B23" t="n">
+        <v>110.5952072143555</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.748187065124512</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-21264613485907.34</v>
+      </c>
+      <c r="E23" t="n">
+        <v>83.82910625501113</v>
+      </c>
+      <c r="F23" t="n">
+        <v>108.8335494995117</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6.872494697570801</v>
+      </c>
+      <c r="B24" t="n">
+        <v>70.92404174804688</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.894447326660156</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-610742216296200.4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>120.765515349128</v>
+      </c>
+      <c r="F24" t="n">
+        <v>70.73472595214844</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6.033889293670654</v>
+      </c>
+      <c r="B25" t="n">
+        <v>50.4334716796875</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.04390287399292</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-52125094178738.27</v>
+      </c>
+      <c r="E25" t="n">
+        <v>104.0543014352972</v>
+      </c>
+      <c r="F25" t="n">
+        <v>53.57641983032227</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.416730188716686</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5715516392785962</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.933623100106197</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0008945378491006517</v>
+      </c>
+      <c r="E26" t="n">
+        <v>727629127252.3126</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.606144493476696</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>pixel_wise_LR</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10.64858150482178</v>
+      </c>
+      <c r="B27" t="n">
+        <v>167.0694580078125</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10.69132900238037</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-34275831952821.68</v>
+      </c>
+      <c r="E27" t="n">
+        <v>93.98580518635836</v>
+      </c>
+      <c r="F27" t="n">
+        <v>164.5226898193359</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>pixel_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7.777876377105713</v>
+      </c>
+      <c r="B28" t="n">
+        <v>86.99317169189453</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.795375347137451</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-29342221182427.11</v>
+      </c>
+      <c r="E28" t="n">
+        <v>103.5897650501945</v>
+      </c>
+      <c r="F28" t="n">
+        <v>82.13082885742188</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1133,6 +1133,306 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6.926627635955811</v>
+      </c>
+      <c r="B29" t="n">
+        <v>63.61492538452148</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.939476490020752</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-2562211453447565</v>
+      </c>
+      <c r="E29" t="n">
+        <v>235.9206985343586</v>
+      </c>
+      <c r="F29" t="n">
+        <v>63.86148834228516</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5.70344352722168</v>
+      </c>
+      <c r="B30" t="n">
+        <v>58.59968185424805</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.749361038208008</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-17743599617363.28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>90.69911241531372</v>
+      </c>
+      <c r="F30" t="n">
+        <v>65.77205657958984</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>8.300091743469238</v>
+      </c>
+      <c r="B31" t="n">
+        <v>109.8273391723633</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.393122673034668</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1450.449577018942</v>
+      </c>
+      <c r="E31" t="n">
+        <v>935.4463993261257</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100.0496215820312</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7.960669994354248</v>
+      </c>
+      <c r="B32" t="n">
+        <v>87.51819610595703</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.99315357208252</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-20868415494601.38</v>
+      </c>
+      <c r="E32" t="n">
+        <v>156.2203792008487</v>
+      </c>
+      <c r="F32" t="n">
+        <v>87.80817413330078</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7.275979995727539</v>
+      </c>
+      <c r="B33" t="n">
+        <v>95.95014190673828</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7.332493305206299</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-17670065707756.79</v>
+      </c>
+      <c r="E33" t="n">
+        <v>72.47666337273337</v>
+      </c>
+      <c r="F33" t="n">
+        <v>92.35352325439453</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>8.402196884155273</v>
+      </c>
+      <c r="B34" t="n">
+        <v>86.19173431396484</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8.561131477355957</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-66252091461612.22</v>
+      </c>
+      <c r="E34" t="n">
+        <v>88.47026242451234</v>
+      </c>
+      <c r="F34" t="n">
+        <v>96.22374725341797</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10.63892269134521</v>
+      </c>
+      <c r="B35" t="n">
+        <v>149.8115997314453</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10.66920948028564</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-23751583390696.42</v>
+      </c>
+      <c r="E35" t="n">
+        <v>84.85622771761633</v>
+      </c>
+      <c r="F35" t="n">
+        <v>141.7155303955078</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7.835040092468262</v>
+      </c>
+      <c r="B36" t="n">
+        <v>88.51445770263672</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.870300769805908</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-7416363618809.46</v>
+      </c>
+      <c r="E36" t="n">
+        <v>68.38784099302508</v>
+      </c>
+      <c r="F36" t="n">
+        <v>84.65922546386719</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8.622147560119629</v>
+      </c>
+      <c r="B37" t="n">
+        <v>128.4588775634766</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8.66795825958252</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-82.68297688946261</v>
+      </c>
+      <c r="E37" t="n">
+        <v>67.81554122765858</v>
+      </c>
+      <c r="F37" t="n">
+        <v>111.2591171264648</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2.70246148109436</v>
+      </c>
+      <c r="B38" t="n">
+        <v>15.25741672515869</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.732513904571533</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-538421087399487.6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>173.2076129452749</v>
+      </c>
+      <c r="F38" t="n">
+        <v>14.40982913970947</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6.558722019195557</v>
+      </c>
+      <c r="B39" t="n">
+        <v>70.76721954345703</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6.584362506866455</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-126900095179398.8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>333.5507734255357</v>
+      </c>
+      <c r="F39" t="n">
+        <v>73.63493347167969</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9.662464141845703</v>
+      </c>
+      <c r="B40" t="n">
+        <v>189.5314178466797</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.76561450958252</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-64.0203542298063</v>
+      </c>
+      <c r="E40" t="n">
+        <v>86.01551254590352</v>
+      </c>
+      <c r="F40" t="n">
+        <v>146.1157073974609</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>pixel_wise_CNN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1433,6 +1433,356 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7.496635913848877</v>
+      </c>
+      <c r="B41" t="n">
+        <v>83.07721710205078</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7.504837512969971</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1679937576506396</v>
+      </c>
+      <c r="E41" t="n">
+        <v>240.5986319888722</v>
+      </c>
+      <c r="F41" t="n">
+        <v>80.97267150878906</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.416730188716686</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5715516392785962</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.933623100106197</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0008945378491006517</v>
+      </c>
+      <c r="E42" t="n">
+        <v>727629127252.3126</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8.606144493476696</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>pixel_wise_LR</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4.932620525360107</v>
+      </c>
+      <c r="B43" t="n">
+        <v>28.71713066101074</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.955715179443359</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-373871023615877.8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>178.1748968091878</v>
+      </c>
+      <c r="F43" t="n">
+        <v>29.33255767822266</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10.62270164489746</v>
+      </c>
+      <c r="B44" t="n">
+        <v>146.9600219726562</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10.66820430755615</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-19588151360234.41</v>
+      </c>
+      <c r="E44" t="n">
+        <v>87.78099038384177</v>
+      </c>
+      <c r="F44" t="n">
+        <v>141.0417022705078</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>9.401618957519531</v>
+      </c>
+      <c r="B45" t="n">
+        <v>145.4182891845703</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9.665611267089844</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-17346953190128.41</v>
+      </c>
+      <c r="E45" t="n">
+        <v>76.77942270582372</v>
+      </c>
+      <c r="F45" t="n">
+        <v>116.8921813964844</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>image_to_image_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3.703394889831543</v>
+      </c>
+      <c r="B46" t="n">
+        <v>23.61543464660645</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.754235029220581</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-626393144623.63</v>
+      </c>
+      <c r="E46" t="n">
+        <v>53.63986790180206</v>
+      </c>
+      <c r="F46" t="n">
+        <v>24.44098663330078</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>8.711594581604004</v>
+      </c>
+      <c r="B47" t="n">
+        <v>165.4646606445312</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9.163847923278809</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-18190531931982.75</v>
+      </c>
+      <c r="E47" t="n">
+        <v>73.03785464980386</v>
+      </c>
+      <c r="F47" t="n">
+        <v>105.1427917480469</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>UNet_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7.118859767913818</v>
+      </c>
+      <c r="B48" t="n">
+        <v>65.02945709228516</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7.147447109222412</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-17297098406737.55</v>
+      </c>
+      <c r="E48" t="n">
+        <v>210.2047322825952</v>
+      </c>
+      <c r="F48" t="n">
+        <v>62.73174667358398</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10.70224857330322</v>
+      </c>
+      <c r="B49" t="n">
+        <v>159.0246734619141</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10.73979091644287</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-1806842812433466</v>
+      </c>
+      <c r="E49" t="n">
+        <v>144.724716110663</v>
+      </c>
+      <c r="F49" t="n">
+        <v>150.7037353515625</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7.058937549591064</v>
+      </c>
+      <c r="B50" t="n">
+        <v>76.0980224609375</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7.089797496795654</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-327683914869439.5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>135.3565993634137</v>
+      </c>
+      <c r="F50" t="n">
+        <v>72.38484191894531</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>8.463695526123047</v>
+      </c>
+      <c r="B51" t="n">
+        <v>128.8173980712891</v>
+      </c>
+      <c r="C51" t="n">
+        <v>8.487026214599609</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-31033539064603.05</v>
+      </c>
+      <c r="E51" t="n">
+        <v>96.46527279507031</v>
+      </c>
+      <c r="F51" t="n">
+        <v>116.765998840332</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7.400274753570557</v>
+      </c>
+      <c r="B52" t="n">
+        <v>98.84123229980469</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7.431413173675537</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-17443282659428.01</v>
+      </c>
+      <c r="E52" t="n">
+        <v>88.55640834028071</v>
+      </c>
+      <c r="F52" t="n">
+        <v>93.74546051025391</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5.471689224243164</v>
+      </c>
+      <c r="B53" t="n">
+        <v>62.26301193237305</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.526041030883789</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-83136526562647.75</v>
+      </c>
+      <c r="E53" t="n">
+        <v>86.2932794473388</v>
+      </c>
+      <c r="F53" t="n">
+        <v>60.13566970825195</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>transfer_learning_VGG16</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7.512341499328613</v>
+      </c>
+      <c r="B54" t="n">
+        <v>97.37432098388672</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.584685802459717</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-5666941458847.911</v>
+      </c>
+      <c r="E54" t="n">
+        <v>92.79169480909</v>
+      </c>
+      <c r="F54" t="n">
+        <v>97.55467987060547</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>transfer_learning_VGG16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1433,6 +1433,56 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6.695636749267578</v>
+      </c>
+      <c r="B41" t="n">
+        <v>79.25836944580078</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6.727011203765869</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-41179693918406.34</v>
+      </c>
+      <c r="E41" t="n">
+        <v>88.86418138679706</v>
+      </c>
+      <c r="F41" t="n">
+        <v>81.025634765625</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5.908756732940674</v>
+      </c>
+      <c r="B42" t="n">
+        <v>58.81145858764648</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5.927823066711426</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-36803463210408.52</v>
+      </c>
+      <c r="E42" t="n">
+        <v>91.68399650799601</v>
+      </c>
+      <c r="F42" t="n">
+        <v>62.46599960327148</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,6 +1483,181 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7.1639084815979</v>
+      </c>
+      <c r="B43" t="n">
+        <v>91.94361877441406</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7.242763519287109</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-196171151651142.7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>121.7162525183276</v>
+      </c>
+      <c r="F43" t="n">
+        <v>93.28836059570312</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6.829373836517334</v>
+      </c>
+      <c r="B44" t="n">
+        <v>81.33992767333984</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6.853470802307129</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-51993188968650.3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>92.6977929316069</v>
+      </c>
+      <c r="F44" t="n">
+        <v>84.06394958496094</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.803884983062744</v>
+      </c>
+      <c r="B45" t="n">
+        <v>87.770751953125</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6.823829174041748</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-50369082604783.18</v>
+      </c>
+      <c r="E45" t="n">
+        <v>88.44853529804631</v>
+      </c>
+      <c r="F45" t="n">
+        <v>90.30230712890625</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>8.990546226501465</v>
+      </c>
+      <c r="B46" t="n">
+        <v>124.6351089477539</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9.040779113769531</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-43123580462518.76</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.06642925425579</v>
+      </c>
+      <c r="F46" t="n">
+        <v>127.4859008789062</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5.988717079162598</v>
+      </c>
+      <c r="B47" t="n">
+        <v>67.0408935546875</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6.004575252532959</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-45067635943035.44</v>
+      </c>
+      <c r="E47" t="n">
+        <v>80.69407746195793</v>
+      </c>
+      <c r="F47" t="n">
+        <v>74.56203460693359</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7.020937919616699</v>
+      </c>
+      <c r="B48" t="n">
+        <v>81.87960815429688</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7.04119873046875</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-2044035579930253</v>
+      </c>
+      <c r="E48" t="n">
+        <v>166.9777745008469</v>
+      </c>
+      <c r="F48" t="n">
+        <v>82.03780364990234</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6.316136360168457</v>
+      </c>
+      <c r="B49" t="n">
+        <v>65.80188751220703</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6.386356353759766</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-83450633807492.81</v>
+      </c>
+      <c r="E49" t="n">
+        <v>126.6056904196739</v>
+      </c>
+      <c r="F49" t="n">
+        <v>75.72874450683594</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,6 +1658,306 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.9457541108131409</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.744891166687012</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.996178507804871</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-37.08327894261543</v>
+      </c>
+      <c r="E50" t="n">
+        <v>426928367114.8936</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6.38384485244751</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.8945629596710205</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.68892240524292</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.837690591812134</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-45.23440178784918</v>
+      </c>
+      <c r="E51" t="n">
+        <v>470101402689.3617</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.122775554656982</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.930730938911438</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.371370792388916</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.006350040435791</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-36.94837665177406</v>
+      </c>
+      <c r="E52" t="n">
+        <v>404432072170.2128</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6.536459445953369</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.9279202222824097</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.404760837554932</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.832587242126465</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-22.29903595498268</v>
+      </c>
+      <c r="E53" t="n">
+        <v>556567286740.4255</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.837959289550781</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.8675065636634827</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.057533979415894</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.736640810966492</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-41.9541250898483</v>
+      </c>
+      <c r="E54" t="n">
+        <v>496759799829.7872</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4.336140632629395</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1.052263975143433</v>
+      </c>
+      <c r="B55" t="n">
+        <v>16.46219444274902</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.934394955635071</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-57.04437495292501</v>
+      </c>
+      <c r="E55" t="n">
+        <v>593173197344.6809</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5.972426414489746</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.8926618695259094</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4.714767932891846</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.829948306083679</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-95.6273536593356</v>
+      </c>
+      <c r="E56" t="n">
+        <v>413264389446.8085</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4.666220664978027</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.8816350698471069</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6.487468242645264</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.821159482002258</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-14.92061870656115</v>
+      </c>
+      <c r="E57" t="n">
+        <v>409161174059.5745</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5.313192367553711</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.9721586108207703</v>
+      </c>
+      <c r="B58" t="n">
+        <v>8.192783355712891</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.732923269271851</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-123.526341600621</v>
+      </c>
+      <c r="E58" t="n">
+        <v>497165383897.8723</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5.062629699707031</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.9426972270011902</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4616122841835022</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.680603623390198</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-17.91060692579188</v>
+      </c>
+      <c r="E59" t="n">
+        <v>538458593497.8723</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4.604397296905518</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.8379539251327515</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.144630312919617</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.403079152107239</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-69.10077006132045</v>
+      </c>
+      <c r="E60" t="n">
+        <v>560833500595.7446</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.964597702026367</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.017936110496521</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.671546578407288</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.891979575157166</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-143.4543451387831</v>
+      </c>
+      <c r="E61" t="n">
+        <v>632461186451.0638</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5.239346027374268</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>transfer_learning_VGG16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,6 +1958,81 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.9664393663406372</v>
+      </c>
+      <c r="B62" t="n">
+        <v>8.661151885986328</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.82314133644104</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3.002679714497099</v>
+      </c>
+      <c r="E62" t="n">
+        <v>457178178995.7447</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5.151038646697998</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.9200628399848938</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.6614099740982056</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.761045694351196</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-20.95597520534028</v>
+      </c>
+      <c r="E63" t="n">
+        <v>487730039285.1064</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4.710843563079834</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.9817302823066711</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8325235247612</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.979376554489136</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-58.8432236225047</v>
+      </c>
+      <c r="E64" t="n">
+        <v>497673122314.8936</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6.089628219604492</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,6 +1658,1256 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.2734442353248596</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.003848705207929015</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9087221026420593</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-5.366666709437327</v>
+      </c>
+      <c r="E50" t="n">
+        <v>192877964800</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8257758617401123</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1.436557292938232</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0475890077650547</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.957648038864136</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.1328527307844902</v>
+      </c>
+      <c r="E51" t="n">
+        <v>83896076800</v>
+      </c>
+      <c r="F51" t="n">
+        <v>15.66297721862793</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.9276041388511658</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.2058058977127075</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.420172333717346</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-22.94398108069301</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2629378800</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.016889572143555</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11.02131938934326</v>
+      </c>
+      <c r="B53" t="n">
+        <v>148.2660217285156</v>
+      </c>
+      <c r="C53" t="n">
+        <v>11.09649562835693</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-79.88885061979035</v>
+      </c>
+      <c r="E53" t="n">
+        <v>153351162.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>123.132209777832</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>17.94106864929199</v>
+      </c>
+      <c r="B54" t="n">
+        <v>290.0042419433594</v>
+      </c>
+      <c r="C54" t="n">
+        <v>18.07573318481445</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-60.09024473191704</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4192755200</v>
+      </c>
+      <c r="F54" t="n">
+        <v>326.7321166992188</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.7639257311820984</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6.385388851165771</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.296569466590881</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9607584387258722</v>
+      </c>
+      <c r="E55" t="n">
+        <v>91959532800</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.681092262268066</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.09791650623083115</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.006380150094628334</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2691506445407867</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.2180318503381258</v>
+      </c>
+      <c r="E56" t="n">
+        <v>72396787200</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.07244207710027695</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1.434697866439819</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.05650632083415985</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.978485584259033</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.1448132442799737</v>
+      </c>
+      <c r="E57" t="n">
+        <v>75327430400</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15.82834720611572</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.3252849280834198</v>
+      </c>
+      <c r="B58" t="n">
+        <v>27.43192291259766</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.232069969177246</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.06240196431837108</v>
+      </c>
+      <c r="E58" t="n">
+        <v>37368848000</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.517996430397034</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.07878071069717407</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.00208582915365696</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.2177338153123856</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-566.3561161326975</v>
+      </c>
+      <c r="E59" t="n">
+        <v>78105913600</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.04740801453590393</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>18.60099411010742</v>
+      </c>
+      <c r="B60" t="n">
+        <v>312.2639465332031</v>
+      </c>
+      <c r="C60" t="n">
+        <v>18.74329376220703</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-64.68587053710242</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1418460500</v>
+      </c>
+      <c r="F60" t="n">
+        <v>351.3110961914062</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4.8621826171875</v>
+      </c>
+      <c r="B61" t="n">
+        <v>306.086669921875</v>
+      </c>
+      <c r="C61" t="n">
+        <v>9.118706703186035</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.004722215050733003</v>
+      </c>
+      <c r="E61" t="n">
+        <v>88308320000</v>
+      </c>
+      <c r="F61" t="n">
+        <v>83.15081024169922</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10.92160892486572</v>
+      </c>
+      <c r="B62" t="n">
+        <v>146.5292358398438</v>
+      </c>
+      <c r="C62" t="n">
+        <v>11.0558910369873</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-79.29796008893803</v>
+      </c>
+      <c r="E62" t="n">
+        <v>154750925</v>
+      </c>
+      <c r="F62" t="n">
+        <v>122.2327346801758</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.2330607324838638</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.01920566149055958</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.8481537699699402</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-8608.00917867751</v>
+      </c>
+      <c r="E63" t="n">
+        <v>231950950400</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.7193648219108582</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.2613194584846497</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.01358926389366388</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.7489300966262817</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-8.430839221109251</v>
+      </c>
+      <c r="E64" t="n">
+        <v>200865088000</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5608962774276733</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.507228493690491</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.2013203799724579</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.953965425491333</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.1307454545708144</v>
+      </c>
+      <c r="E65" t="n">
+        <v>159804236800</v>
+      </c>
+      <c r="F65" t="n">
+        <v>15.63384342193604</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>4.251371383666992</v>
+      </c>
+      <c r="B66" t="n">
+        <v>217.4419403076172</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7.902534484863281</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.2525010464687405</v>
+      </c>
+      <c r="E66" t="n">
+        <v>113073420800</v>
+      </c>
+      <c r="F66" t="n">
+        <v>62.45005035400391</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2.873812198638916</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8.87025260925293</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.911223411560059</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-99.61558900697734</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1927465600</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8.475221633911133</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.550223350524902</v>
+      </c>
+      <c r="B68" t="n">
+        <v>28.6575870513916</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.790535449981689</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.8182268331870974</v>
+      </c>
+      <c r="E68" t="n">
+        <v>90558156800</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7.787087440490723</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>4.615551471710205</v>
+      </c>
+      <c r="B69" t="n">
+        <v>272.8863525390625</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8.69633674621582</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.1626609418513754</v>
+      </c>
+      <c r="E69" t="n">
+        <v>61223430400</v>
+      </c>
+      <c r="F69" t="n">
+        <v>75.62626647949219</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>4.630322456359863</v>
+      </c>
+      <c r="B70" t="n">
+        <v>276.44873046875</v>
+      </c>
+      <c r="C70" t="n">
+        <v>8.763372421264648</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.1806547342352594</v>
+      </c>
+      <c r="E70" t="n">
+        <v>35852371200</v>
+      </c>
+      <c r="F70" t="n">
+        <v>76.79669952392578</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.472850918769836</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.2853326499462128</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.954779148101807</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.1312108075711862</v>
+      </c>
+      <c r="E71" t="n">
+        <v>123135744000</v>
+      </c>
+      <c r="F71" t="n">
+        <v>15.64027786254883</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2.537051916122437</v>
+      </c>
+      <c r="B72" t="n">
+        <v>90.83602142333984</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.503135204315186</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.5266474915038664</v>
+      </c>
+      <c r="E72" t="n">
+        <v>191002944000</v>
+      </c>
+      <c r="F72" t="n">
+        <v>20.27822685241699</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.1439285129308701</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.008144842460751534</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.4888379871845245</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-2858.788503027563</v>
+      </c>
+      <c r="E73" t="n">
+        <v>143298060800</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.2389625757932663</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2.138474464416504</v>
+      </c>
+      <c r="B74" t="n">
+        <v>58.50387573242188</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.995958805084229</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.8088739887510323</v>
+      </c>
+      <c r="E74" t="n">
+        <v>44622208000</v>
+      </c>
+      <c r="F74" t="n">
+        <v>15.96768665313721</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.1746570616960526</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.005697623826563358</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.6190417408943176</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-1.954539482079067</v>
+      </c>
+      <c r="E75" t="n">
+        <v>110917760000</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.3832126557826996</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.33868408203125</v>
+      </c>
+      <c r="B76" t="n">
+        <v>26.9270133972168</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.216467022895813</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.03566376149131756</v>
+      </c>
+      <c r="E76" t="n">
+        <v>54011846400</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.479791879653931</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.412575840950012</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.003824306884780526</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.935261487960815</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.120072870281565</v>
+      </c>
+      <c r="E77" t="n">
+        <v>62812640000</v>
+      </c>
+      <c r="F77" t="n">
+        <v>15.48628330230713</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10.81675052642822</v>
+      </c>
+      <c r="B78" t="n">
+        <v>145.798095703125</v>
+      </c>
+      <c r="C78" t="n">
+        <v>10.89762783050537</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-77.01551002036705</v>
+      </c>
+      <c r="E78" t="n">
+        <v>179038925</v>
+      </c>
+      <c r="F78" t="n">
+        <v>118.7582931518555</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2.045625925064087</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4.369775295257568</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.063660860061646</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-49.55811082082033</v>
+      </c>
+      <c r="E79" t="n">
+        <v>988180000</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4.25869607925415</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.05087537318468094</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.002827068557962775</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.05357483774423599</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-33.34992198885271</v>
+      </c>
+      <c r="E80" t="n">
+        <v>50404041600</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.002870263066142797</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.1431527733802795</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.006012091413140297</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.4330041110515594</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.007740644858823531</v>
+      </c>
+      <c r="E81" t="n">
+        <v>62926675200</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1874925643205643</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.429100513458252</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.01207376644015312</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.928130388259888</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.1160172373997224</v>
+      </c>
+      <c r="E82" t="n">
+        <v>81886752000</v>
+      </c>
+      <c r="F82" t="n">
+        <v>15.43020820617676</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.1669585555791855</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0119700338691473</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.4337684214115143</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.004234746107709353</v>
+      </c>
+      <c r="E83" t="n">
+        <v>87640345600</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.1881550401449203</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>4.130475044250488</v>
+      </c>
+      <c r="B84" t="n">
+        <v>218.3628692626953</v>
+      </c>
+      <c r="C84" t="n">
+        <v>7.758630275726318</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.3609340121621865</v>
+      </c>
+      <c r="E84" t="n">
+        <v>62365363200</v>
+      </c>
+      <c r="F84" t="n">
+        <v>60.19634246826172</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.413267016410828</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0008566975011490285</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.93433952331543</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.1195481367512083</v>
+      </c>
+      <c r="E85" t="n">
+        <v>63779136000</v>
+      </c>
+      <c r="F85" t="n">
+        <v>15.47902679443359</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.120072029531002</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.005308019928634167</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.360467404127121</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.001801945977768726</v>
+      </c>
+      <c r="E86" t="n">
+        <v>52725644800</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.1299367398023605</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10.92582607269287</v>
+      </c>
+      <c r="B87" t="n">
+        <v>145.8994140625</v>
+      </c>
+      <c r="C87" t="n">
+        <v>10.99886512756348</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-78.47175600046664</v>
+      </c>
+      <c r="E87" t="n">
+        <v>258491250</v>
+      </c>
+      <c r="F87" t="n">
+        <v>120.9750442504883</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>10.94240188598633</v>
+      </c>
+      <c r="B88" t="n">
+        <v>144.6608276367188</v>
+      </c>
+      <c r="C88" t="n">
+        <v>11.04155731201172</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-79.08988155979414</v>
+      </c>
+      <c r="E88" t="n">
+        <v>252052350</v>
+      </c>
+      <c r="F88" t="n">
+        <v>121.9159851074219</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3.093123435974121</v>
+      </c>
+      <c r="B89" t="n">
+        <v>121.6928100585938</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5.746949195861816</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.2290441858374657</v>
+      </c>
+      <c r="E89" t="n">
+        <v>90821772800</v>
+      </c>
+      <c r="F89" t="n">
+        <v>33.02742767333984</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>18.55572319030762</v>
+      </c>
+      <c r="B90" t="n">
+        <v>310.9325561523438</v>
+      </c>
+      <c r="C90" t="n">
+        <v>18.69879150390625</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-64.37431647296403</v>
+      </c>
+      <c r="E90" t="n">
+        <v>207018375</v>
+      </c>
+      <c r="F90" t="n">
+        <v>349.6448364257812</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.2178385257720947</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.02179771102964878</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.5295568108558655</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0.4841105176876521</v>
+      </c>
+      <c r="E91" t="n">
+        <v>150239680000</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.280430406332016</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>9.146243095397949</v>
+      </c>
+      <c r="B92" t="n">
+        <v>73.2061767578125</v>
+      </c>
+      <c r="C92" t="n">
+        <v>9.235505104064941</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-1011.594294530358</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2988721600</v>
+      </c>
+      <c r="F92" t="n">
+        <v>85.29454803466797</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>18.00918769836426</v>
+      </c>
+      <c r="B93" t="n">
+        <v>319.2105712890625</v>
+      </c>
+      <c r="C93" t="n">
+        <v>18.12356185913086</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-104.5673728273152</v>
+      </c>
+      <c r="E93" t="n">
+        <v>28788499200</v>
+      </c>
+      <c r="F93" t="n">
+        <v>328.4635009765625</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.1404657065868378</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.002491933526471257</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.2644067108631134</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-835.6599658218752</v>
+      </c>
+      <c r="E94" t="n">
+        <v>139695372800</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.06991091370582581</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.1501569896936417</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.005325597710907459</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.5263239741325378</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-3.657727627754146</v>
+      </c>
+      <c r="E95" t="n">
+        <v>101130380800</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.2770169377326965</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4.993167877197266</v>
+      </c>
+      <c r="B96" t="n">
+        <v>314.7816162109375</v>
+      </c>
+      <c r="C96" t="n">
+        <v>9.361800193786621</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0.3474080074741388</v>
+      </c>
+      <c r="E96" t="n">
+        <v>94560275200</v>
+      </c>
+      <c r="F96" t="n">
+        <v>87.64330291748047</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>5.392280578613281</v>
+      </c>
+      <c r="B97" t="n">
+        <v>352.1886291503906</v>
+      </c>
+      <c r="C97" t="n">
+        <v>9.960224151611328</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.1874518341748299</v>
+      </c>
+      <c r="E97" t="n">
+        <v>171252710400</v>
+      </c>
+      <c r="F97" t="n">
+        <v>99.20606231689453</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>13.97712993621826</v>
+      </c>
+      <c r="B98" t="n">
+        <v>222.8880004882812</v>
+      </c>
+      <c r="C98" t="n">
+        <v>14.08549118041992</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-62.76561954240612</v>
+      </c>
+      <c r="E98" t="n">
+        <v>8316240800</v>
+      </c>
+      <c r="F98" t="n">
+        <v>198.4010620117188</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.03819729387760162</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.01216761115938425</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.1184797063469887</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-166.9933002871291</v>
+      </c>
+      <c r="E99" t="n">
+        <v>37318563200</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.01403744053095579</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2908,6 +2908,1206 @@
         </is>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.8596811294555664</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2.248768091201782</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.724864363670349</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-71.40849184482656</v>
+      </c>
+      <c r="E100" t="n">
+        <v>469772041804.2553</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4.507877826690674</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.7534343004226685</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3.16551685333252</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.374248623847961</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-12.29441690571765</v>
+      </c>
+      <c r="E101" t="n">
+        <v>444451113395.7447</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3.052483797073364</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9286084175109863</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7.760709285736084</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.863625049591064</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-61.58271131616958</v>
+      </c>
+      <c r="E102" t="n">
+        <v>453289461106.383</v>
+      </c>
+      <c r="F102" t="n">
+        <v>6.0939621925354</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.115990281105042</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.940340042114258</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.008822917938232</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-147.2605324983597</v>
+      </c>
+      <c r="E103" t="n">
+        <v>680466584510.6383</v>
+      </c>
+      <c r="F103" t="n">
+        <v>5.76312255859375</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.00933039188385</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3.16529393196106</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.259030818939209</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-5.571460782213414</v>
+      </c>
+      <c r="E104" t="n">
+        <v>426982295965.9575</v>
+      </c>
+      <c r="F104" t="n">
+        <v>6.988144397735596</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.7385736107826233</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.6275250315666199</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.573476791381836</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-4.541453201720056</v>
+      </c>
+      <c r="E105" t="n">
+        <v>375911125514.8936</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4.035888671875</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.8046396970748901</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3.49657416343689</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.611523270606995</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-22.02330865251257</v>
+      </c>
+      <c r="E106" t="n">
+        <v>435718041600</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4.21206521987915</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.8968891501426697</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.56415319442749</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.891908049583435</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-16.01699161275904</v>
+      </c>
+      <c r="E107" t="n">
+        <v>434708908119.1489</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5.743984222412109</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.808458685874939</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.4559301733970642</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.791244506835938</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-12.4711358838893</v>
+      </c>
+      <c r="E108" t="n">
+        <v>367557989855.3192</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5.310420989990234</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9869308471679688</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.422699928283691</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.855995178222656</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-113.3488069189356</v>
+      </c>
+      <c r="E109" t="n">
+        <v>565802442621.2766</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4.816323757171631</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.746968686580658</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.065529584884644</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.367603540420532</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-143.8801022641202</v>
+      </c>
+      <c r="E110" t="n">
+        <v>489187561123.4042</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3.130749225616455</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9268593192100525</v>
+      </c>
+      <c r="B111" t="n">
+        <v>14.3017406463623</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.809185147285461</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-52.26051625292352</v>
+      </c>
+      <c r="E111" t="n">
+        <v>444963058382.9787</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5.706840991973877</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.119616746902466</v>
+      </c>
+      <c r="B112" t="n">
+        <v>22.67323684692383</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.419947147369385</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-9.107085608421489</v>
+      </c>
+      <c r="E112" t="n">
+        <v>457377001668.0851</v>
+      </c>
+      <c r="F112" t="n">
+        <v>9.449128150939941</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.8630604147911072</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.6669899225234985</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.863962650299072</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-27.03334814436892</v>
+      </c>
+      <c r="E113" t="n">
+        <v>376706462093.617</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5.64447546005249</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.7955003380775452</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.570913076400757</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.7098388671875</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-32.59468007594981</v>
+      </c>
+      <c r="E114" t="n">
+        <v>375335816987.2341</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4.096352100372314</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.8320711255073547</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9.398361206054688</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.885207653045654</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-33.70326427830027</v>
+      </c>
+      <c r="E115" t="n">
+        <v>313845304919.1489</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6.419261455535889</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.8398342728614807</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.6705552339553833</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.729468107223511</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-2.277073522831531</v>
+      </c>
+      <c r="E116" t="n">
+        <v>386707002280.8511</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4.870111465454102</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.7393311858177185</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.645909309387207</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.590883612632751</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-183.2304892083432</v>
+      </c>
+      <c r="E117" t="n">
+        <v>403345467914.8936</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3.87427544593811</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9455854296684265</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7.463586807250977</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.020931720733643</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-126.1416758400329</v>
+      </c>
+      <c r="E118" t="n">
+        <v>382243825838.2979</v>
+      </c>
+      <c r="F118" t="n">
+        <v>6.659377098083496</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.8227949738502502</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7354503273963928</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.774887919425964</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-12.91941478404593</v>
+      </c>
+      <c r="E119" t="n">
+        <v>468781855591.4894</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4.34673023223877</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.118360280990601</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3.681287050247192</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.103008508682251</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-38.28629111736379</v>
+      </c>
+      <c r="E120" t="n">
+        <v>678543950978.7234</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5.819842338562012</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.8360373377799988</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.27004861831665</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.87752902507782</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-11.97666566549463</v>
+      </c>
+      <c r="E121" t="n">
+        <v>372464936851.0638</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6.060422897338867</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.8896858692169189</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6.103817462921143</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.832067966461182</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-42.10816293954849</v>
+      </c>
+      <c r="E122" t="n">
+        <v>470997818280.8511</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5.268997669219971</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9445618987083435</v>
+      </c>
+      <c r="B123" t="n">
+        <v>11.56263542175293</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.878180980682373</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-235.8107902394964</v>
+      </c>
+      <c r="E123" t="n">
+        <v>498543609463.8298</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5.790144920349121</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.848566472530365</v>
+      </c>
+      <c r="B124" t="n">
+        <v>8.65877628326416</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.714842438697815</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-67.71498584620495</v>
+      </c>
+      <c r="E124" t="n">
+        <v>422242823625.5319</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4.67481517791748</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.7461006641387939</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.488987922668457</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.712054848670959</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-117.6791512877383</v>
+      </c>
+      <c r="E125" t="n">
+        <v>377155475608.5106</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4.621083736419678</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.8789389729499817</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.342092037200928</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.706390976905823</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-14.07812982417168</v>
+      </c>
+      <c r="E126" t="n">
+        <v>505541515165.9575</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4.090943813323975</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.203413367271423</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9.437295913696289</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.300647497177124</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-18.98308277891037</v>
+      </c>
+      <c r="E127" t="n">
+        <v>579952706995.7446</v>
+      </c>
+      <c r="F127" t="n">
+        <v>8.39342212677002</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9152313470840454</v>
+      </c>
+      <c r="B128" t="n">
+        <v>14.21992683410645</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.660873055458069</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-3.206704345155269</v>
+      </c>
+      <c r="E128" t="n">
+        <v>480182116221.2766</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4.952116012573242</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9344733953475952</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3.927819728851318</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.843330383300781</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-20.72696092280936</v>
+      </c>
+      <c r="E129" t="n">
+        <v>561110411438.2979</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5.312889099121094</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9186947345733643</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5.320650100708008</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.748309850692749</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-9.271270999248992</v>
+      </c>
+      <c r="E130" t="n">
+        <v>497836352817.0213</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4.810377597808838</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9020166397094727</v>
+      </c>
+      <c r="B131" t="n">
+        <v>8.851003646850586</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.817696809768677</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-3.13458203254862</v>
+      </c>
+      <c r="E131" t="n">
+        <v>432115564936.1702</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5.588676929473877</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.033352732658386</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5.165764808654785</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.068458557128906</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-16.51343293646549</v>
+      </c>
+      <c r="E132" t="n">
+        <v>473615362178.7234</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7.066964626312256</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.033605217933655</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.90936946868896</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.069193363189697</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-17.38844456698032</v>
+      </c>
+      <c r="E133" t="n">
+        <v>478511399761.7021</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7.154708385467529</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9842287302017212</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12.1817741394043</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.842600107192993</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-5.03600450018619</v>
+      </c>
+      <c r="E134" t="n">
+        <v>495135799012.7659</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5.673090934753418</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.830704391002655</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.6601468920707703</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.543311595916748</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-4.425902087637719</v>
+      </c>
+      <c r="E135" t="n">
+        <v>500151580868.0851</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4.11402702331543</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9109788537025452</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.124304056167603</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.828866481781006</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-51.02871311471817</v>
+      </c>
+      <c r="E136" t="n">
+        <v>465444738723.4042</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5.096076965332031</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.820145308971405</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.4365099668502808</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.523406505584717</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-30.67693035906934</v>
+      </c>
+      <c r="E137" t="n">
+        <v>499020456306.383</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.868188381195068</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.064227223396301</v>
+      </c>
+      <c r="B138" t="n">
+        <v>18.42310523986816</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.030352830886841</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-7.535354803217218</v>
+      </c>
+      <c r="E138" t="n">
+        <v>498230177225.5319</v>
+      </c>
+      <c r="F138" t="n">
+        <v>6.88247537612915</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9090425968170166</v>
+      </c>
+      <c r="B139" t="n">
+        <v>10.01303672790527</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.105231046676636</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-48.70851549442778</v>
+      </c>
+      <c r="E139" t="n">
+        <v>335520613582.9787</v>
+      </c>
+      <c r="F139" t="n">
+        <v>7.18594217300415</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.93575519323349</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9.143447875976562</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.826441526412964</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-20.76647509919836</v>
+      </c>
+      <c r="E140" t="n">
+        <v>449440403063.8298</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5.188252925872803</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.8190785050392151</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.281016826629639</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.649726748466492</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-61.29024871232662</v>
+      </c>
+      <c r="E141" t="n">
+        <v>436808919829.7872</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4.61019229888916</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.7877548933029175</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5.04295825958252</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.498947024345398</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-64.6102032585347</v>
+      </c>
+      <c r="E142" t="n">
+        <v>468057096170.2128</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3.71479868888855</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.8613008260726929</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.462361812591553</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.603631377220154</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-26.29774352210633</v>
+      </c>
+      <c r="E143" t="n">
+        <v>515875594348.9362</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3.805381536483765</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.8731364011764526</v>
+      </c>
+      <c r="B144" t="n">
+        <v>13.14386081695557</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.875593662261963</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-35.98578850766446</v>
+      </c>
+      <c r="E144" t="n">
+        <v>397378699710.6383</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6.336005687713623</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9232341647148132</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.168176531791687</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.114682197570801</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-3.208172959216097</v>
+      </c>
+      <c r="E145" t="n">
+        <v>403907276527.6595</v>
+      </c>
+      <c r="F145" t="n">
+        <v>7.237642765045166</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9814303517341614</v>
+      </c>
+      <c r="B146" t="n">
+        <v>7.564403057098389</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.911447048187256</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-11.48361406808204</v>
+      </c>
+      <c r="E146" t="n">
+        <v>521410354110.6383</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5.26633882522583</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9139622449874878</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3.300665378570557</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.835327744483948</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-15.67171223746969</v>
+      </c>
+      <c r="E147" t="n">
+        <v>420500520306.383</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6.325275897979736</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,456 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9577028155326843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20.73846435546875</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.112088680267334</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-137.4968296936218</v>
+      </c>
+      <c r="E3" t="n">
+        <v>420870525821.2766</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.591203212738037</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.5456421375274658</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.06683349609375</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.242329359054565</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-25.49563856708243</v>
+      </c>
+      <c r="E4" t="n">
+        <v>240303009770.2128</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.805725812911987</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.5483834743499756</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.596117973327637</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.460193395614624</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-156.480105072894</v>
+      </c>
+      <c r="E5" t="n">
+        <v>157610542825.5319</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.505756855010986</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.7509559988975525</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.968358516693115</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.624142527580261</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-78.47222044620108</v>
+      </c>
+      <c r="E6" t="n">
+        <v>347610483744.6808</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.386599063873291</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9840875267982483</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.660901069641113</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.818571805953979</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-64.73456356184823</v>
+      </c>
+      <c r="E7" t="n">
+        <v>550282310948.5714</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.925622463226318</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.6518709659576416</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.886601448059082</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.498376131057739</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-29.25851020280351</v>
+      </c>
+      <c r="E8" t="n">
+        <v>248972278400</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.632547616958618</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.5408384203910828</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.203628897666931</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.528201818466187</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-15.13391797593299</v>
+      </c>
+      <c r="E9" t="n">
+        <v>164905809157.4468</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.704631090164185</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.969681978225708</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.326513051986694</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.747366189956665</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-10.9404737657689</v>
+      </c>
+      <c r="E10" t="n">
+        <v>632550367863.8298</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.420028686523438</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.8848940134048462</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.517326831817627</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.615783095359802</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-18.9591681944563</v>
+      </c>
+      <c r="E11" t="n">
+        <v>544509642076.5958</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.565377235412598</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.6658329367637634</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.921624898910522</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.462688326835632</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-15.40261381991366</v>
+      </c>
+      <c r="E12" t="n">
+        <v>290194042553.1915</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.911893367767334</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.5628238320350647</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.010687589645386</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.287092447280884</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-129.2839127677552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>168412391897.8723</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.811599493026733</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.5921014547348022</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.837651968002319</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.452772259712219</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-41.52195829026243</v>
+      </c>
+      <c r="E14" t="n">
+        <v>159069834212.766</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.077149152755737</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.5249163508415222</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3748676478862762</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.187764763832092</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-101.1618299522299</v>
+      </c>
+      <c r="E15" t="n">
+        <v>180473753191.4893</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.118086576461792</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.9286317229270935</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9.544151306152344</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.02158260345459</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-39.16115866569763</v>
+      </c>
+      <c r="E16" t="n">
+        <v>425701055727.6595</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6.510616779327393</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.8410537242889404</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.182130336761475</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.739898562431335</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-50.28042063814529</v>
+      </c>
+      <c r="E17" t="n">
+        <v>423169829855.3192</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.846415519714355</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.5630061030387878</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6055718064308167</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.215425252914429</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-17.72598969175461</v>
+      </c>
+      <c r="E18" t="n">
+        <v>279173740391.4894</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.329515695571899</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.510148286819458</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.008625984191895</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.165908217430115</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-40.94772824581633</v>
+      </c>
+      <c r="E19" t="n">
+        <v>246276597378.7234</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.140529155731201</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.5818377733230591</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5.534768104553223</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.536139965057373</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-167.0448117332256</v>
+      </c>
+      <c r="E20" t="n">
+        <v>183151110400</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.632771968841553</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,6 +933,631 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.5611510872840881</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.801456928253174</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.362651586532593</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-19.78228923995444</v>
+      </c>
+      <c r="E21" t="n">
+        <v>230396834451.0638</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.735645294189453</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.098202347755432</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.8259105682373</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.222299575805664</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-112.2296118710903</v>
+      </c>
+      <c r="E22" t="n">
+        <v>550983279659.5745</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.71868896484375</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.056717872619629</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.32443428039551</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.071966409683228</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-5.57461820257471</v>
+      </c>
+      <c r="E23" t="n">
+        <v>524434749548.9362</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7.035161972045898</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.8207058906555176</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.933875799179077</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.653830289840698</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-12.7495665309277</v>
+      </c>
+      <c r="E24" t="n">
+        <v>455296939574.4681</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.397425174713135</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.7695140242576599</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.837937355041504</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.517321944236755</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-30.07859997165964</v>
+      </c>
+      <c r="E25" t="n">
+        <v>440633978008.5106</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.823163509368896</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.9675418138504028</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.554907560348511</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.949404835700989</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2.373081998622164</v>
+      </c>
+      <c r="E26" t="n">
+        <v>456485545940.4255</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6.29358434677124</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.9160651564598083</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10.48176860809326</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.82522439956665</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-17.96184836803599</v>
+      </c>
+      <c r="E27" t="n">
+        <v>464466727217.0213</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.378842830657959</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.8633576035499573</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.177749991416931</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.571286916732788</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4.896038529720713</v>
+      </c>
+      <c r="E28" t="n">
+        <v>499005332697.8723</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.754797697067261</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.9796630144119263</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6.2113356590271</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.933162927627563</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-67.50353400631154</v>
+      </c>
+      <c r="E29" t="n">
+        <v>446501818825.5319</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.758320331573486</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.138062119483948</v>
+      </c>
+      <c r="B30" t="n">
+        <v>11.77289199829102</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.296059370040894</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-13.2681508622271</v>
+      </c>
+      <c r="E30" t="n">
+        <v>479193271557.4468</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.342867851257324</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.8560394048690796</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8.494757652282715</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.825756907463074</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-138.8368411596785</v>
+      </c>
+      <c r="E31" t="n">
+        <v>421285518025.5319</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.646670818328857</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.5859103202819824</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.2329978346824646</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.481824159622192</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-6.584819349836796</v>
+      </c>
+      <c r="E32" t="n">
+        <v>261457702672.3404</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.322758197784424</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.4600130021572113</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.619203567504883</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.258809566497803</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-86.0542743852798</v>
+      </c>
+      <c r="E33" t="n">
+        <v>91581070978.7234</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.550829172134399</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.8451480269432068</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.565877079963684</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.76441490650177</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-52.29124381694388</v>
+      </c>
+      <c r="E34" t="n">
+        <v>410289189038.2979</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6.019660472869873</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.5847933292388916</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.800622463226318</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.529593944549561</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-35.71953106941061</v>
+      </c>
+      <c r="E35" t="n">
+        <v>158809679778.7234</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.408647537231445</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.4594634771347046</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.796782732009888</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.303190469741821</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-13.70483569388694</v>
+      </c>
+      <c r="E36" t="n">
+        <v>99835460765.95744</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.803035736083984</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.887498140335083</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.549867630004883</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.835855484008789</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-60.01654029907064</v>
+      </c>
+      <c r="E37" t="n">
+        <v>411193025361.7021</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.704699039459229</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.6519955396652222</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.097380876541138</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.434951186180115</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-42.31385268429492</v>
+      </c>
+      <c r="E38" t="n">
+        <v>317439393838.2979</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.111681461334229</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.5468311905860901</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5.029465198516846</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.447220325469971</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-68.98253349674509</v>
+      </c>
+      <c r="E39" t="n">
+        <v>122823701021.2766</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.584326982498169</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.7962366342544556</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.286669135093689</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.533681392669678</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-19.51915700131274</v>
+      </c>
+      <c r="E40" t="n">
+        <v>420677095489.3617</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4.227782249450684</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.9636113047599792</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.514065742492676</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.936246871948242</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-4.490595922825184</v>
+      </c>
+      <c r="E41" t="n">
+        <v>537464726331.9149</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5.672987461090088</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.056821465492249</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12.71019744873047</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.083181381225586</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-18.44777638481018</v>
+      </c>
+      <c r="E42" t="n">
+        <v>509382002927.6595</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7.337303161621094</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.034227132797241</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.73998928070068</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.938020586967468</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-65.48293148329917</v>
+      </c>
+      <c r="E43" t="n">
+        <v>522570696987.2341</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6.76535701751709</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.165049314498901</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.3362455368042</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.334616899490356</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-11.32020041663596</v>
+      </c>
+      <c r="E44" t="n">
+        <v>508220505327.6595</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8.633825302124023</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.9952740073204041</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7.12258243560791</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.015360355377197</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-10.23574071234845</v>
+      </c>
+      <c r="E45" t="n">
+        <v>509514742195.7447</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6.238861560821533</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1558,6 +1558,1056 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.9017543196678162</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2.521530866622925</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.802225947380066</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-107.0953668991725</v>
+      </c>
+      <c r="E46" t="n">
+        <v>457252315428.5714</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4.985165119171143</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.8775644302368164</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6.9344482421875</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.818026900291443</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-96.29295260338556</v>
+      </c>
+      <c r="E47" t="n">
+        <v>431702838125.7143</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5.006726741790771</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.9088878035545349</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.200065612792969</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.962723016738892</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-94.57903126080831</v>
+      </c>
+      <c r="E48" t="n">
+        <v>446867743085.7143</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5.56441593170166</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.9972982406616211</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7.058177947998047</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.022331237792969</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-113.486838211332</v>
+      </c>
+      <c r="E49" t="n">
+        <v>540007158491.4286</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5.724908351898193</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.7792739868164062</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5699937343597412</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.858957171440125</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-17.69970751489912</v>
+      </c>
+      <c r="E50" t="n">
+        <v>321916180175.2381</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5.485104084014893</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.9399718046188354</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.200639486312866</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.003800868988037</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-84.25109867254893</v>
+      </c>
+      <c r="E51" t="n">
+        <v>484174098895.2381</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.679117202758789</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.7859368920326233</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.956629276275635</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.720741152763367</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-59.64032125132425</v>
+      </c>
+      <c r="E52" t="n">
+        <v>334596420876.1905</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4.837278842926025</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.8643839955329895</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5497064590454102</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.7832270860672</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-58.18964311622438</v>
+      </c>
+      <c r="E53" t="n">
+        <v>389089817478.0952</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5.139394283294678</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.9530872702598572</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.640794992446899</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.996487617492676</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-98.63676558108557</v>
+      </c>
+      <c r="E54" t="n">
+        <v>493294894811.4286</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5.60615873336792</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.8609052300453186</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.657103061676025</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.87358832359314</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-58.80916191282726</v>
+      </c>
+      <c r="E55" t="n">
+        <v>401669774628.5714</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5.291597843170166</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.8031380176544189</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2.995244264602661</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.906256198883057</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-38.85943710747219</v>
+      </c>
+      <c r="E56" t="n">
+        <v>341384934948.5714</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5.497754096984863</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1.034296989440918</v>
+      </c>
+      <c r="B57" t="n">
+        <v>8.514514923095703</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.089373111724854</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-118.8965880984352</v>
+      </c>
+      <c r="E57" t="n">
+        <v>584261629074.2858</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5.807278156280518</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1.018164396286011</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.630522727966309</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.875158429145813</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-101.6764801831472</v>
+      </c>
+      <c r="E58" t="n">
+        <v>583021662841.9048</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5.062661647796631</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1.026302456855774</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.631511211395264</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.920016765594482</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-136.0961211136409</v>
+      </c>
+      <c r="E59" t="n">
+        <v>587157667840</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5.214833736419678</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.9263667464256287</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.361488580703735</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.905181646347046</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-52.68785542533512</v>
+      </c>
+      <c r="E60" t="n">
+        <v>463435171718.0952</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5.410654067993164</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.9945899844169617</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2.910760164260864</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.998823046684265</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-110.7302676677704</v>
+      </c>
+      <c r="E61" t="n">
+        <v>541902112914.2857</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5.5266432762146</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.9318986535072327</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2.750803232192993</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.038758516311646</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-54.64017200356438</v>
+      </c>
+      <c r="E62" t="n">
+        <v>468826665325.7143</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5.964098930358887</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.9096934199333191</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.012002944946289</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.953229188919067</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-82.91075936499097</v>
+      </c>
+      <c r="E63" t="n">
+        <v>455404246491.4286</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5.500816822052002</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.9568446278572083</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.6201144456863403</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.655382990837097</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-36.76191529659998</v>
+      </c>
+      <c r="E64" t="n">
+        <v>526767705721.9048</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4.570427417755127</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.051512837409973</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.330471277236938</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.8245689868927</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-76.66456031799316</v>
+      </c>
+      <c r="E65" t="n">
+        <v>623131997866.6666</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5.035137176513672</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.973793089389801</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8.371407508850098</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.194447994232178</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-281.7951156559445</v>
+      </c>
+      <c r="E66" t="n">
+        <v>523880615497.1429</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6.307433128356934</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.9354144930839539</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4433042705059052</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.644671320915222</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-33.41130167643229</v>
+      </c>
+      <c r="E67" t="n">
+        <v>504892702232.381</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4.564877033233643</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.00892448425293</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.233160257339478</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.694337964057922</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-58.4041052034923</v>
+      </c>
+      <c r="E68" t="n">
+        <v>581425558918.0952</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4.625170707702637</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.9890592098236084</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.175996899604797</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.030811786651611</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-113.1758999052502</v>
+      </c>
+      <c r="E69" t="n">
+        <v>550401560137.1428</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5.92841100692749</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.9116143584251404</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1094756051898003</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.63050103187561</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-26.54079221089681</v>
+      </c>
+      <c r="E70" t="n">
+        <v>480071821653.3333</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4.550655364990234</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.9929424524307251</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.6605459451675415</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.676642179489136</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-46.96394410701025</v>
+      </c>
+      <c r="E71" t="n">
+        <v>564975788617.1428</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4.593532085418701</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.9908697009086609</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9972986578941345</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.706821203231812</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-50.14255252906254</v>
+      </c>
+      <c r="E72" t="n">
+        <v>563276022491.4286</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.662500858306885</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.147668123245239</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.374602556228638</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2.127864122390747</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-385.4193977446783</v>
+      </c>
+      <c r="E73" t="n">
+        <v>687442749074.2858</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6.14180850982666</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.7953504323959351</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.346957564353943</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.72034740447998</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-14.84512591134934</v>
+      </c>
+      <c r="E74" t="n">
+        <v>347426649478.0952</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4.923642635345459</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1.017789125442505</v>
+      </c>
+      <c r="B75" t="n">
+        <v>19.04950714111328</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.189368486404419</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-211.7817503917785</v>
+      </c>
+      <c r="E75" t="n">
+        <v>556301252754.2858</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6.503934860229492</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1.074586272239685</v>
+      </c>
+      <c r="B76" t="n">
+        <v>13.18398189544678</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.986365795135498</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-275.3549520254135</v>
+      </c>
+      <c r="E76" t="n">
+        <v>637228534003.8096</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5.605415821075439</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.8564614653587341</v>
+      </c>
+      <c r="B77" t="n">
+        <v>16.93477249145508</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.099032402038574</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-292.9141580195654</v>
+      </c>
+      <c r="E77" t="n">
+        <v>393914082986.6667</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6.0462646484375</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.8658744692802429</v>
+      </c>
+      <c r="B78" t="n">
+        <v>9.021941184997559</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.969117999076843</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-36.32586064792815</v>
+      </c>
+      <c r="E78" t="n">
+        <v>403063905950.4762</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5.825082778930664</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1.009921789169312</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.788281202316284</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.852157473564148</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-100.031043774741</v>
+      </c>
+      <c r="E79" t="n">
+        <v>574526190445.7142</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4.994694232940674</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.6973587870597839</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.4169797599315643</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.652444362640381</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-6.735175619806562</v>
+      </c>
+      <c r="E80" t="n">
+        <v>241638094537.1429</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4.846870422363281</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.9030468463897705</v>
+      </c>
+      <c r="B81" t="n">
+        <v>9.172155380249023</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.996304750442505</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-76.67217200029464</v>
+      </c>
+      <c r="E81" t="n">
+        <v>446145842956.1905</v>
+      </c>
+      <c r="F81" t="n">
+        <v>5.904741764068604</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.030997157096863</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5800731778144836</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.687773823738098</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-44.99728751069024</v>
+      </c>
+      <c r="E82" t="n">
+        <v>605234601203.8096</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4.594246387481689</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.9869456887245178</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.456927299499512</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.667442798614502</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-38.15457293022246</v>
+      </c>
+      <c r="E83" t="n">
+        <v>558884556068.5714</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4.573980808258057</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.9594493508338928</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.3047943413257599</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.84900164604187</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-88.69358342715672</v>
+      </c>
+      <c r="E84" t="n">
+        <v>512506346788.5714</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5.159304141998291</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.9701809287071228</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.3510559797286987</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.657085776329041</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-34.89447087900979</v>
+      </c>
+      <c r="E85" t="n">
+        <v>541458405180.9524</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4.562754154205322</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.003728270530701</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.7751680016517639</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.681337952613831</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-47.90881255127135</v>
+      </c>
+      <c r="E86" t="n">
+        <v>575935445577.1428</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4.592146873474121</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.9731581807136536</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.3884403109550476</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.711851239204407</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-46.79606182121096</v>
+      </c>
+      <c r="E87" t="n">
+        <v>537153642788.5714</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4.765301704406738</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2608,6 +2608,206 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1.084102988243103</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.168370842933655</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.7184739112854</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-43.99249821674256</v>
+      </c>
+      <c r="E88" t="n">
+        <v>662861962240</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4.670480728149414</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.8515521287918091</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.4324450790882111</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.61290967464447</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-18.00438492014295</v>
+      </c>
+      <c r="E89" t="n">
+        <v>416022758521.9048</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4.558314800262451</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.7274260520935059</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.1962245106697083</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.571054339408875</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-8.420770406155359</v>
+      </c>
+      <c r="E90" t="n">
+        <v>281848076617.1429</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4.577625751495361</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1.074768662452698</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.931097149848938</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.708486199378967</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-42.53732217096147</v>
+      </c>
+      <c r="E91" t="n">
+        <v>653262248960</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4.644068241119385</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.056743144989014</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8993262052536011</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.702191472053528</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-34.63954700345085</v>
+      </c>
+      <c r="E92" t="n">
+        <v>634519604053.3334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4.651595115661621</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1.181282162666321</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.260506153106689</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.774301886558533</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-61.05954350460144</v>
+      </c>
+      <c r="E93" t="n">
+        <v>763162897310.4762</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4.7477707862854</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.9596875309944153</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6840640306472778</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.664466738700867</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-28.99921129260744</v>
+      </c>
+      <c r="E94" t="n">
+        <v>530037068556.1905</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4.624459266662598</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.9700950384140015</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6455429196357727</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.65800666809082</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-22.69846475067593</v>
+      </c>
+      <c r="E95" t="n">
+        <v>543343611977.1429</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4.602963924407959</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2808,6 +2808,181 @@
         </is>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.7735275030136108</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.153113484382629</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.224150896072388</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-21.61617224901281</v>
+      </c>
+      <c r="E96" t="n">
+        <v>129824973072.3404</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9.044163703918457</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.7285835742950439</v>
+      </c>
+      <c r="B97" t="n">
+        <v>10.41320323944092</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.04633355140686</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-4.236331672110456</v>
+      </c>
+      <c r="E97" t="n">
+        <v>133442721906.383</v>
+      </c>
+      <c r="F97" t="n">
+        <v>6.797059535980225</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.07284688949585</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6.54117488861084</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.942922592163086</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-24.60462281551767</v>
+      </c>
+      <c r="E98" t="n">
+        <v>658420812255.3191</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5.529599666595459</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.9818323850631714</v>
+      </c>
+      <c r="B99" t="n">
+        <v>10.39433860778809</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.744303584098816</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-37.17155497758947</v>
+      </c>
+      <c r="E99" t="n">
+        <v>540469079148.9362</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5.420166492462158</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.054496288299561</v>
+      </c>
+      <c r="B100" t="n">
+        <v>14.69718265533447</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.071804046630859</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-34.78087705120127</v>
+      </c>
+      <c r="E100" t="n">
+        <v>477813805208.5106</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7.588881969451904</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.006372690200806</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5742382407188416</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.675866603851318</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-263.2509359755414</v>
+      </c>
+      <c r="E101" t="n">
+        <v>655327560442.5532</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4.140530586242676</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.694810688495636</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5.567434310913086</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.792689442634583</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-1.988754548925034</v>
+      </c>
+      <c r="E102" t="n">
+        <v>202451425497.8723</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5.359274387359619</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,6 +558,1756 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.425890803337097</v>
+      </c>
+      <c r="B6" t="n">
+        <v>52.41729354858398</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.624424695968628</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.1350105365117391</v>
+      </c>
+      <c r="E6" t="n">
+        <v>401623037013.3333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.53763389587402</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.723649144172668</v>
+      </c>
+      <c r="B7" t="n">
+        <v>41.98030853271484</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.803420543670654</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4674133102099101</v>
+      </c>
+      <c r="E7" t="n">
+        <v>719281847680</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17.55698776245117</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.316771626472473</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50.65542984008789</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.606398582458496</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.07709332307179768</v>
+      </c>
+      <c r="E8" t="n">
+        <v>282510953386.6667</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.54600715637207</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.210473537445068</v>
+      </c>
+      <c r="B9" t="n">
+        <v>55.79502868652344</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.634677648544312</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.09039297898610434</v>
+      </c>
+      <c r="E9" t="n">
+        <v>164399514720</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16.79737663269043</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.420764207839966</v>
+      </c>
+      <c r="B10" t="n">
+        <v>56.26122283935547</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.773883819580078</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.3309269666671753</v>
+      </c>
+      <c r="E10" t="n">
+        <v>396128901760</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.57861518859863</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.343269467353821</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50.3658447265625</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.599435329437256</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.07278549273808797</v>
+      </c>
+      <c r="E11" t="n">
+        <v>311941164800</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16.48633193969727</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.317852377891541</v>
+      </c>
+      <c r="B12" t="n">
+        <v>58.72731018066406</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.642707347869873</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.1471756815910339</v>
+      </c>
+      <c r="E12" t="n">
+        <v>279587901040</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16.73784828186035</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.286079406738281</v>
+      </c>
+      <c r="B13" t="n">
+        <v>56.56501770019531</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.665226459503174</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.218183700243632</v>
+      </c>
+      <c r="E13" t="n">
+        <v>247750768640</v>
+      </c>
+      <c r="F13" t="n">
+        <v>16.84675788879395</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.283445119857788</v>
+      </c>
+      <c r="B14" t="n">
+        <v>51.21817398071289</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.610826969146729</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.07603391806284586</v>
+      </c>
+      <c r="E14" t="n">
+        <v>245774403840</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16.59817314147949</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.224668979644775</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57.30327606201172</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.641751050949097</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.1155632495880127</v>
+      </c>
+      <c r="E15" t="n">
+        <v>179963655413.3333</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16.80506706237793</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.221657633781433</v>
+      </c>
+      <c r="B16" t="n">
+        <v>54.66233062744141</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.629013299942017</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.09562751849492392</v>
+      </c>
+      <c r="E16" t="n">
+        <v>182770837226.6667</v>
+      </c>
+      <c r="F16" t="n">
+        <v>16.7007942199707</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.349941730499268</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50.78429412841797</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.59924578666687</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.07396696408589681</v>
+      </c>
+      <c r="E17" t="n">
+        <v>318979147946.6667</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16.48058700561523</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.297724962234497</v>
+      </c>
+      <c r="B18" t="n">
+        <v>56.57402420043945</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.653007745742798</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.1687735358874003</v>
+      </c>
+      <c r="E18" t="n">
+        <v>257423088213.3333</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16.80391883850098</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.401161670684814</v>
+      </c>
+      <c r="B19" t="n">
+        <v>56.50584030151367</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.65248966217041</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.1807700236638387</v>
+      </c>
+      <c r="E19" t="n">
+        <v>377732699093.3333</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16.68759918212891</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.300832509994507</v>
+      </c>
+      <c r="B20" t="n">
+        <v>51.05624008178711</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.601340293884277</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.06441754500071208</v>
+      </c>
+      <c r="E20" t="n">
+        <v>266450020693.3333</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16.52925682067871</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.439748644828796</v>
+      </c>
+      <c r="B21" t="n">
+        <v>53.91242218017578</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.678736448287964</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.2446764707565308</v>
+      </c>
+      <c r="E21" t="n">
+        <v>414645778026.6667</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16.83250045776367</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.426642179489136</v>
+      </c>
+      <c r="B22" t="n">
+        <v>54.45344924926758</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.679067134857178</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.2357951164245606</v>
+      </c>
+      <c r="E22" t="n">
+        <v>404784314240</v>
+      </c>
+      <c r="F22" t="n">
+        <v>16.83502769470215</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.35850989818573</v>
+      </c>
+      <c r="B23" t="n">
+        <v>50.7301139831543</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.589860677719116</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.0620303750038147</v>
+      </c>
+      <c r="E23" t="n">
+        <v>330562519040</v>
+      </c>
+      <c r="F23" t="n">
+        <v>16.41303062438965</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.440906405448914</v>
+      </c>
+      <c r="B24" t="n">
+        <v>48.7562255859375</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.623382806777954</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.136185359954834</v>
+      </c>
+      <c r="E24" t="n">
+        <v>417722059306.6667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>16.52604293823242</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.717911005020142</v>
+      </c>
+      <c r="B25" t="n">
+        <v>51.86695861816406</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.792582750320435</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.4690909783045451</v>
+      </c>
+      <c r="E25" t="n">
+        <v>708224593173.3334</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17.50565338134766</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.582382917404175</v>
+      </c>
+      <c r="B26" t="n">
+        <v>45.98152542114258</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.674090147018433</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.3152522762616475</v>
+      </c>
+      <c r="E26" t="n">
+        <v>569176570880</v>
+      </c>
+      <c r="F26" t="n">
+        <v>16.64914894104004</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.74072790145874</v>
+      </c>
+      <c r="B27" t="n">
+        <v>46.64236068725586</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.712287664413452</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.4691001097361246</v>
+      </c>
+      <c r="E27" t="n">
+        <v>742748853760</v>
+      </c>
+      <c r="F27" t="n">
+        <v>16.72640228271484</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.788916707038879</v>
+      </c>
+      <c r="B28" t="n">
+        <v>33.40922927856445</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.746084451675415</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.5165083090464274</v>
+      </c>
+      <c r="E28" t="n">
+        <v>796004653226.6666</v>
+      </c>
+      <c r="F28" t="n">
+        <v>16.93704605102539</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.780991435050964</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27.30521583557129</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.768811941146851</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.5932425340016683</v>
+      </c>
+      <c r="E29" t="n">
+        <v>783958290773.3334</v>
+      </c>
+      <c r="F29" t="n">
+        <v>17.03542518615723</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.613056540489197</v>
+      </c>
+      <c r="B30" t="n">
+        <v>40.4328498840332</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.758808612823486</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.4138146996498108</v>
+      </c>
+      <c r="E30" t="n">
+        <v>592164168160</v>
+      </c>
+      <c r="F30" t="n">
+        <v>17.28392219543457</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.775779724121094</v>
+      </c>
+      <c r="B31" t="n">
+        <v>47.21681976318359</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.841583251953125</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.8661732951800029</v>
+      </c>
+      <c r="E31" t="n">
+        <v>777191642453.3334</v>
+      </c>
+      <c r="F31" t="n">
+        <v>17.49871826171875</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1.701514959335327</v>
+      </c>
+      <c r="B32" t="n">
+        <v>40.89462661743164</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.943970680236816</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.9823213736216228</v>
+      </c>
+      <c r="E32" t="n">
+        <v>690589997226.6666</v>
+      </c>
+      <c r="F32" t="n">
+        <v>18.64751243591309</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.7967449426651</v>
+      </c>
+      <c r="B33" t="n">
+        <v>39.54308319091797</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.914231061935425</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.9302772204081218</v>
+      </c>
+      <c r="E33" t="n">
+        <v>798508289706.6666</v>
+      </c>
+      <c r="F33" t="n">
+        <v>18.18734169006348</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.76287841796875</v>
+      </c>
+      <c r="B34" t="n">
+        <v>34.69051742553711</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.728305101394653</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.4310853203137716</v>
+      </c>
+      <c r="E34" t="n">
+        <v>766666670080</v>
+      </c>
+      <c r="F34" t="n">
+        <v>16.88577651977539</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.836408734321594</v>
+      </c>
+      <c r="B35" t="n">
+        <v>29.51497650146484</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.788824558258057</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.5862325469652812</v>
+      </c>
+      <c r="E35" t="n">
+        <v>845472649386.6666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>17.21987915039062</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2.141320943832397</v>
+      </c>
+      <c r="B36" t="n">
+        <v>47.37777328491211</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.914554834365845</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.8953089475631714</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1174200403626.667</v>
+      </c>
+      <c r="F36" t="n">
+        <v>18.08290863037109</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.819636225700378</v>
+      </c>
+      <c r="B37" t="n">
+        <v>42.3990592956543</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.805821895599365</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.637619678179423</v>
+      </c>
+      <c r="E37" t="n">
+        <v>823654163626.6666</v>
+      </c>
+      <c r="F37" t="n">
+        <v>17.34804725646973</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1.703550338745117</v>
+      </c>
+      <c r="B38" t="n">
+        <v>43.06990432739258</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.822142601013184</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.7112365007400513</v>
+      </c>
+      <c r="E38" t="n">
+        <v>694919810986.6666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>17.69072532653809</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2.019992589950562</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38.49806976318359</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.004695415496826</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1.166359114646912</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1041335412586.667</v>
+      </c>
+      <c r="F39" t="n">
+        <v>18.8818531036377</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1.64772617816925</v>
+      </c>
+      <c r="B40" t="n">
+        <v>50.97104644775391</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.704513311386108</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.4267736713091532</v>
+      </c>
+      <c r="E40" t="n">
+        <v>640191391573.3334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>16.77958488464355</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.724249958992004</v>
+      </c>
+      <c r="B41" t="n">
+        <v>42.83964920043945</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.728540182113647</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.6047855377197265</v>
+      </c>
+      <c r="E41" t="n">
+        <v>722580427946.6666</v>
+      </c>
+      <c r="F41" t="n">
+        <v>16.79951095581055</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.482308745384216</v>
+      </c>
+      <c r="B42" t="n">
+        <v>58.52895355224609</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.665476322174072</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.2383799433708191</v>
+      </c>
+      <c r="E42" t="n">
+        <v>459590367146.6667</v>
+      </c>
+      <c r="F42" t="n">
+        <v>16.72138023376465</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.42654824256897</v>
+      </c>
+      <c r="B43" t="n">
+        <v>62.61589431762695</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.674721240997314</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.2301756660143534</v>
+      </c>
+      <c r="E43" t="n">
+        <v>392242367573.3333</v>
+      </c>
+      <c r="F43" t="n">
+        <v>16.8307991027832</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.454670786857605</v>
+      </c>
+      <c r="B44" t="n">
+        <v>57.31682968139648</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.695742607116699</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.2370224754015605</v>
+      </c>
+      <c r="E44" t="n">
+        <v>420980525440</v>
+      </c>
+      <c r="F44" t="n">
+        <v>16.99264907836914</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.502831816673279</v>
+      </c>
+      <c r="B45" t="n">
+        <v>54.98895645141602</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.726359605789185</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.3172505140304566</v>
+      </c>
+      <c r="E45" t="n">
+        <v>468230098346.6667</v>
+      </c>
+      <c r="F45" t="n">
+        <v>17.1602897644043</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.738423466682434</v>
+      </c>
+      <c r="B46" t="n">
+        <v>36.78580474853516</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.741352558135986</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.513713558514913</v>
+      </c>
+      <c r="E46" t="n">
+        <v>737428928000</v>
+      </c>
+      <c r="F46" t="n">
+        <v>16.93592071533203</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1.754131555557251</v>
+      </c>
+      <c r="B47" t="n">
+        <v>32.20827865600586</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.760024309158325</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.6424126029014587</v>
+      </c>
+      <c r="E47" t="n">
+        <v>753010695680</v>
+      </c>
+      <c r="F47" t="n">
+        <v>17.00557708740234</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1.554593324661255</v>
+      </c>
+      <c r="B48" t="n">
+        <v>54.12669372558594</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.672654628753662</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.2668789505958557</v>
+      </c>
+      <c r="E48" t="n">
+        <v>535441291093.3333</v>
+      </c>
+      <c r="F48" t="n">
+        <v>16.72234916687012</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1.495668292045593</v>
+      </c>
+      <c r="B49" t="n">
+        <v>52.43216323852539</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.69697642326355</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.3216982404390971</v>
+      </c>
+      <c r="E49" t="n">
+        <v>466456746240</v>
+      </c>
+      <c r="F49" t="n">
+        <v>16.89584732055664</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1.637244343757629</v>
+      </c>
+      <c r="B50" t="n">
+        <v>57.98477554321289</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.714130163192749</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.3662455519040426</v>
+      </c>
+      <c r="E50" t="n">
+        <v>632852818880</v>
+      </c>
+      <c r="F50" t="n">
+        <v>16.89230155944824</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1.633424282073975</v>
+      </c>
+      <c r="B51" t="n">
+        <v>60.87975311279297</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.787741661071777</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.4567412137985229</v>
+      </c>
+      <c r="E51" t="n">
+        <v>611641955626.6666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>17.48268508911133</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1.705778002738953</v>
+      </c>
+      <c r="B52" t="n">
+        <v>44.40709686279297</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.729133367538452</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.5407967646916707</v>
+      </c>
+      <c r="E52" t="n">
+        <v>702300602026.6666</v>
+      </c>
+      <c r="F52" t="n">
+        <v>16.87670516967773</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1.652262926101685</v>
+      </c>
+      <c r="B53" t="n">
+        <v>42.00891876220703</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.706898212432861</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.4261594851811727</v>
+      </c>
+      <c r="E53" t="n">
+        <v>643087970986.6666</v>
+      </c>
+      <c r="F53" t="n">
+        <v>16.81250190734863</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1.578614473342896</v>
+      </c>
+      <c r="B54" t="n">
+        <v>62.29022216796875</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.694941997528076</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.3185939987500508</v>
+      </c>
+      <c r="E54" t="n">
+        <v>559007466666.6666</v>
+      </c>
+      <c r="F54" t="n">
+        <v>16.82367134094238</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1.448298215866089</v>
+      </c>
+      <c r="B55" t="n">
+        <v>60.61956405639648</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.683424949645996</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.268731689453125</v>
+      </c>
+      <c r="E55" t="n">
+        <v>418084991573.3333</v>
+      </c>
+      <c r="F55" t="n">
+        <v>16.85675811767578</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1.490048289299011</v>
+      </c>
+      <c r="B56" t="n">
+        <v>56.36212539672852</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.703777551651001</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.2498116254806519</v>
+      </c>
+      <c r="E56" t="n">
+        <v>463198600640</v>
+      </c>
+      <c r="F56" t="n">
+        <v>17.00725364685059</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1.436173558235168</v>
+      </c>
+      <c r="B57" t="n">
+        <v>53.9495735168457</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.708266496658325</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.2547890981038411</v>
+      </c>
+      <c r="E57" t="n">
+        <v>402316380586.6667</v>
+      </c>
+      <c r="F57" t="n">
+        <v>17.09281349182129</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1.689984679222107</v>
+      </c>
+      <c r="B58" t="n">
+        <v>35.54852294921875</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.744198083877563</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.5462680617968242</v>
+      </c>
+      <c r="E58" t="n">
+        <v>682857376426.6666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>16.98186874389648</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1.625278949737549</v>
+      </c>
+      <c r="B59" t="n">
+        <v>37.86117935180664</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.72753381729126</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.5160894552866618</v>
+      </c>
+      <c r="E59" t="n">
+        <v>612077428053.3334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>16.92107582092285</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1.502102255821228</v>
+      </c>
+      <c r="B60" t="n">
+        <v>52.88875961303711</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.676249742507935</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.296123739083608</v>
+      </c>
+      <c r="E60" t="n">
+        <v>478910105173.3333</v>
+      </c>
+      <c r="F60" t="n">
+        <v>16.74601936340332</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.506081223487854</v>
+      </c>
+      <c r="B61" t="n">
+        <v>55.32115173339844</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.664829015731812</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.2405544956525167</v>
+      </c>
+      <c r="E61" t="n">
+        <v>488537592746.6667</v>
+      </c>
+      <c r="F61" t="n">
+        <v>16.67380714416504</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.682737827301025</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61.02311706542969</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.766549348831177</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.4684164444605509</v>
+      </c>
+      <c r="E62" t="n">
+        <v>679462945706.6666</v>
+      </c>
+      <c r="F62" t="n">
+        <v>17.25029373168945</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.614595890045166</v>
+      </c>
+      <c r="B63" t="n">
+        <v>60.13800430297852</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.722511768341064</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.3196156700452169</v>
+      </c>
+      <c r="E63" t="n">
+        <v>601888697173.3334</v>
+      </c>
+      <c r="F63" t="n">
+        <v>17.04835891723633</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1.887980937957764</v>
+      </c>
+      <c r="B64" t="n">
+        <v>35.88680267333984</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.796441078186035</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.7026220281918844</v>
+      </c>
+      <c r="E64" t="n">
+        <v>901310708053.3334</v>
+      </c>
+      <c r="F64" t="n">
+        <v>17.13855934143066</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.796168565750122</v>
+      </c>
+      <c r="B65" t="n">
+        <v>42.06105804443359</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.724769115447998</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.4305775721867879</v>
+      </c>
+      <c r="E65" t="n">
+        <v>802712139093.3334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>16.87800216674805</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2.013911962509155</v>
+      </c>
+      <c r="B66" t="n">
+        <v>38.11232757568359</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.907994031906128</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.9469257513682048</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1036009303040</v>
+      </c>
+      <c r="F66" t="n">
+        <v>18.03787040710449</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1.833113431930542</v>
+      </c>
+      <c r="B67" t="n">
+        <v>40.62649917602539</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.813082695007324</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.6144602060317993</v>
+      </c>
+      <c r="E67" t="n">
+        <v>835385175893.3334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>17.43823623657227</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.722618460655212</v>
+      </c>
+      <c r="B68" t="n">
+        <v>38.97708892822266</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.829134941101074</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.5079375346501668</v>
+      </c>
+      <c r="E68" t="n">
+        <v>709642475946.6666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>17.820068359375</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1.807041883468628</v>
+      </c>
+      <c r="B69" t="n">
+        <v>31.96239280700684</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.012864589691162</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-1.197257951895396</v>
+      </c>
+      <c r="E69" t="n">
+        <v>796988452586.6666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>19.12263107299805</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1.770404696464539</v>
+      </c>
+      <c r="B70" t="n">
+        <v>30.39508056640625</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.734843254089355</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.4327401757240296</v>
+      </c>
+      <c r="E70" t="n">
+        <v>773058535253.3334</v>
+      </c>
+      <c r="F70" t="n">
+        <v>16.9508228302002</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.684278964996338</v>
+      </c>
+      <c r="B71" t="n">
+        <v>43.47537994384766</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.676263332366943</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.2971864581108093</v>
+      </c>
+      <c r="E71" t="n">
+        <v>682633587200</v>
+      </c>
+      <c r="F71" t="n">
+        <v>16.64619827270508</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.889405727386475</v>
+      </c>
+      <c r="B72" t="n">
+        <v>42.77304840087891</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.800814867019653</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.6259629011154175</v>
+      </c>
+      <c r="E72" t="n">
+        <v>902606219946.6666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>17.3019905090332</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.699240922927856</v>
+      </c>
+      <c r="B73" t="n">
+        <v>45.67408752441406</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.782418727874756</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.5479863166809082</v>
+      </c>
+      <c r="E73" t="n">
+        <v>681522147413.3334</v>
+      </c>
+      <c r="F73" t="n">
+        <v>17.33198165893555</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1.827216625213623</v>
+      </c>
+      <c r="B74" t="n">
+        <v>44.94707107543945</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.952747344970703</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-1.083155369758606</v>
+      </c>
+      <c r="E74" t="n">
+        <v>817046929706.6666</v>
+      </c>
+      <c r="F74" t="n">
+        <v>18.63593292236328</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2.149657487869263</v>
+      </c>
+      <c r="B75" t="n">
+        <v>31.7935791015625</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4.091062545776367</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-1.479648399353027</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1173342161066.667</v>
+      </c>
+      <c r="F75" t="n">
+        <v>19.42381477355957</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2308,6 +2308,31 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1.272963047027588</v>
+      </c>
+      <c r="B76" t="n">
+        <v>53.94136047363281</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3.637452363967896</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.09520560105641683</v>
+      </c>
+      <c r="E76" t="n">
+        <v>226348610133.3333</v>
+      </c>
+      <c r="F76" t="n">
+        <v>16.81589889526367</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>img_wise_CNN_improved</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,47 +460,47 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.369001626968384</v>
+        <v>1.065945506095886</v>
       </c>
       <c r="B2" t="n">
-        <v>49.60377502441406</v>
+        <v>18.70638656616211</v>
       </c>
       <c r="C2" t="n">
-        <v>3.596295118331909</v>
+        <v>2.946395635604858</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07086693445841472</v>
+        <v>-0.5599965453147888</v>
       </c>
       <c r="E2" t="n">
-        <v>340649625173.3333</v>
+        <v>186465933226.6667</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44848442077637</v>
+        <v>13.32935047149658</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.266370892524719</v>
+        <v>1.151225686073303</v>
       </c>
       <c r="B3" t="n">
-        <v>51.99985504150391</v>
+        <v>18.15527725219727</v>
       </c>
       <c r="C3" t="n">
-        <v>3.613289356231689</v>
+        <v>2.857109546661377</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07611804008483887</v>
+        <v>-0.6231825689474741</v>
       </c>
       <c r="E3" t="n">
-        <v>228180765013.3333</v>
+        <v>308062286080</v>
       </c>
       <c r="F3" t="n">
-        <v>16.60994720458984</v>
+        <v>12.85390663146973</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -510,47 +510,47 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.14604115486145</v>
+        <v>1.096018075942993</v>
       </c>
       <c r="B4" t="n">
-        <v>53.35382080078125</v>
+        <v>17.63692855834961</v>
       </c>
       <c r="C4" t="n">
-        <v>3.633750438690186</v>
+        <v>2.942914009094238</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.07475192546844482</v>
+        <v>-0.8868780672550202</v>
       </c>
       <c r="E4" t="n">
-        <v>96259552000</v>
+        <v>224624856746.6667</v>
       </c>
       <c r="F4" t="n">
-        <v>16.84732627868652</v>
+        <v>13.20625782012939</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.340574860572815</v>
+        <v>1.468908786773682</v>
       </c>
       <c r="B5" t="n">
-        <v>49.80856704711914</v>
+        <v>11.83277034759521</v>
       </c>
       <c r="C5" t="n">
-        <v>3.595279932022095</v>
+        <v>2.916941165924072</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06343042453130086</v>
+        <v>-7.605809960762659</v>
       </c>
       <c r="E5" t="n">
-        <v>309707610453.3333</v>
+        <v>697661192533.3334</v>
       </c>
       <c r="F5" t="n">
-        <v>16.46697616577148</v>
+        <v>11.79390907287598</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -560,22 +560,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.425890803337097</v>
+        <v>1.511850118637085</v>
       </c>
       <c r="B6" t="n">
-        <v>52.41729354858398</v>
+        <v>10.57583427429199</v>
       </c>
       <c r="C6" t="n">
-        <v>3.624424695968628</v>
+        <v>2.985122442245483</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1350105365117391</v>
+        <v>-8.860325807332993</v>
       </c>
       <c r="E6" t="n">
-        <v>401623037013.3333</v>
+        <v>740614799360</v>
       </c>
       <c r="F6" t="n">
-        <v>16.53763389587402</v>
+        <v>11.96456813812256</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -585,22 +585,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.723649144172668</v>
+        <v>0.9684521555900574</v>
       </c>
       <c r="B7" t="n">
-        <v>41.98030853271484</v>
+        <v>11.99913597106934</v>
       </c>
       <c r="C7" t="n">
-        <v>3.803420543670654</v>
+        <v>2.316780567169189</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4674133102099101</v>
+        <v>-4.565146539608637</v>
       </c>
       <c r="E7" t="n">
-        <v>719281847680</v>
+        <v>304155322720</v>
       </c>
       <c r="F7" t="n">
-        <v>17.55698776245117</v>
+        <v>8.628804206848145</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -610,22 +610,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.316771626472473</v>
+        <v>1.1480553150177</v>
       </c>
       <c r="B8" t="n">
-        <v>50.65542984008789</v>
+        <v>11.09777164459229</v>
       </c>
       <c r="C8" t="n">
-        <v>3.606398582458496</v>
+        <v>2.292251110076904</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.07709332307179768</v>
+        <v>-4.081990985075633</v>
       </c>
       <c r="E8" t="n">
-        <v>282510953386.6667</v>
+        <v>521829707946.6667</v>
       </c>
       <c r="F8" t="n">
-        <v>16.54600715637207</v>
+        <v>8.080649375915527</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -635,22 +635,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.210473537445068</v>
+        <v>1.175951361656189</v>
       </c>
       <c r="B9" t="n">
-        <v>55.79502868652344</v>
+        <v>10.9095516204834</v>
       </c>
       <c r="C9" t="n">
-        <v>3.634677648544312</v>
+        <v>2.356581449508667</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09039297898610434</v>
+        <v>-5.325941989819209</v>
       </c>
       <c r="E9" t="n">
-        <v>164399514720</v>
+        <v>532488634880</v>
       </c>
       <c r="F9" t="n">
-        <v>16.79737663269043</v>
+        <v>8.43467903137207</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -660,22 +660,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.420764207839966</v>
+        <v>1.1925128698349</v>
       </c>
       <c r="B10" t="n">
-        <v>56.26122283935547</v>
+        <v>18.7468376159668</v>
       </c>
       <c r="C10" t="n">
-        <v>3.773883819580078</v>
+        <v>2.910558462142944</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3309269666671753</v>
+        <v>-0.7462651391824087</v>
       </c>
       <c r="E10" t="n">
-        <v>396128901760</v>
+        <v>333144280746.6667</v>
       </c>
       <c r="F10" t="n">
-        <v>17.57861518859863</v>
+        <v>13.1167688369751</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -685,22 +685,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.343269467353821</v>
+        <v>1.467444896697998</v>
       </c>
       <c r="B11" t="n">
-        <v>50.3658447265625</v>
+        <v>12.19494724273682</v>
       </c>
       <c r="C11" t="n">
-        <v>3.599435329437256</v>
+        <v>2.913837194442749</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.07278549273808797</v>
+        <v>-5.42808940410614</v>
       </c>
       <c r="E11" t="n">
-        <v>311941164800</v>
+        <v>691917151573.3334</v>
       </c>
       <c r="F11" t="n">
-        <v>16.48633193969727</v>
+        <v>11.87725353240967</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -710,22 +710,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.317852377891541</v>
+        <v>1.448825836181641</v>
       </c>
       <c r="B12" t="n">
-        <v>58.72731018066406</v>
+        <v>11.34774589538574</v>
       </c>
       <c r="C12" t="n">
-        <v>3.642707347869873</v>
+        <v>2.916579246520996</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1471756815910339</v>
+        <v>-5.924053178230921</v>
       </c>
       <c r="E12" t="n">
-        <v>279587901040</v>
+        <v>678003183786.6666</v>
       </c>
       <c r="F12" t="n">
-        <v>16.73784828186035</v>
+        <v>11.78976440429688</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -735,22 +735,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.286079406738281</v>
+        <v>1.054250836372375</v>
       </c>
       <c r="B13" t="n">
-        <v>56.56501770019531</v>
+        <v>12.18150043487549</v>
       </c>
       <c r="C13" t="n">
-        <v>3.665226459503174</v>
+        <v>2.417842626571655</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.218183700243632</v>
+        <v>-4.344016710917155</v>
       </c>
       <c r="E13" t="n">
-        <v>247750768640</v>
+        <v>388385597440</v>
       </c>
       <c r="F13" t="n">
-        <v>16.84675788879395</v>
+        <v>8.609695434570312</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -760,22 +760,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.283445119857788</v>
+        <v>1.154959559440613</v>
       </c>
       <c r="B14" t="n">
-        <v>51.21817398071289</v>
+        <v>10.81226253509521</v>
       </c>
       <c r="C14" t="n">
-        <v>3.610826969146729</v>
+        <v>2.2405104637146</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.07603391806284586</v>
+        <v>-5.342420007785162</v>
       </c>
       <c r="E14" t="n">
-        <v>245774403840</v>
+        <v>557177019733.3334</v>
       </c>
       <c r="F14" t="n">
-        <v>16.59817314147949</v>
+        <v>7.201408386230469</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -785,22 +785,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.224668979644775</v>
+        <v>1.128742814064026</v>
       </c>
       <c r="B15" t="n">
-        <v>57.30327606201172</v>
+        <v>9.896631240844727</v>
       </c>
       <c r="C15" t="n">
-        <v>3.641751050949097</v>
+        <v>2.244980812072754</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1155632495880127</v>
+        <v>-10.4239709675312</v>
       </c>
       <c r="E15" t="n">
-        <v>179963655413.3333</v>
+        <v>514001795840</v>
       </c>
       <c r="F15" t="n">
-        <v>16.80506706237793</v>
+        <v>7.108008861541748</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -810,22 +810,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.221657633781433</v>
+        <v>1.2469083070755</v>
       </c>
       <c r="B16" t="n">
-        <v>54.66233062744141</v>
+        <v>17.03796195983887</v>
       </c>
       <c r="C16" t="n">
-        <v>3.629013299942017</v>
+        <v>2.886852502822876</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.09562751849492392</v>
+        <v>-1.405466026067734</v>
       </c>
       <c r="E16" t="n">
-        <v>182770837226.6667</v>
+        <v>406212912640</v>
       </c>
       <c r="F16" t="n">
-        <v>16.7007942199707</v>
+        <v>12.73666191101074</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -835,22 +835,22 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.349941730499268</v>
+        <v>1.399372100830078</v>
       </c>
       <c r="B17" t="n">
-        <v>50.78429412841797</v>
+        <v>13.34689807891846</v>
       </c>
       <c r="C17" t="n">
-        <v>3.59924578666687</v>
+        <v>2.888511419296265</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.07396696408589681</v>
+        <v>-3.38739981452624</v>
       </c>
       <c r="E17" t="n">
-        <v>318979147946.6667</v>
+        <v>614705757866.6666</v>
       </c>
       <c r="F17" t="n">
-        <v>16.48058700561523</v>
+        <v>11.87629890441895</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -860,22 +860,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.297724962234497</v>
+        <v>1.525986909866333</v>
       </c>
       <c r="B18" t="n">
-        <v>56.57402420043945</v>
+        <v>13.31955242156982</v>
       </c>
       <c r="C18" t="n">
-        <v>3.653007745742798</v>
+        <v>2.889703035354614</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1687735358874003</v>
+        <v>-10.6973686337471</v>
       </c>
       <c r="E18" t="n">
-        <v>257423088213.3333</v>
+        <v>775707392000</v>
       </c>
       <c r="F18" t="n">
-        <v>16.80391883850098</v>
+        <v>11.71476554870605</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -885,22 +885,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.401161670684814</v>
+        <v>0.9893526434898376</v>
       </c>
       <c r="B19" t="n">
-        <v>56.50584030151367</v>
+        <v>14.16539859771729</v>
       </c>
       <c r="C19" t="n">
-        <v>3.65248966217041</v>
+        <v>2.460802555084229</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1807700236638387</v>
+        <v>-0.2252007901668548</v>
       </c>
       <c r="E19" t="n">
-        <v>377732699093.3333</v>
+        <v>277598831786.6667</v>
       </c>
       <c r="F19" t="n">
-        <v>16.68759918212891</v>
+        <v>9.22413444519043</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -910,22 +910,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.300832509994507</v>
+        <v>1.00881814956665</v>
       </c>
       <c r="B20" t="n">
-        <v>51.05624008178711</v>
+        <v>11.1628999710083</v>
       </c>
       <c r="C20" t="n">
-        <v>3.601340293884277</v>
+        <v>2.193793535232544</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.06441754500071208</v>
+        <v>-0.4776295284430186</v>
       </c>
       <c r="E20" t="n">
-        <v>266450020693.3333</v>
+        <v>394224823680</v>
       </c>
       <c r="F20" t="n">
-        <v>16.52925682067871</v>
+        <v>7.504802227020264</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -935,22 +935,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.439748644828796</v>
+        <v>0.982023298740387</v>
       </c>
       <c r="B21" t="n">
-        <v>53.91242218017578</v>
+        <v>12.32069301605225</v>
       </c>
       <c r="C21" t="n">
-        <v>3.678736448287964</v>
+        <v>2.09611177444458</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2446764707565308</v>
+        <v>-0.7096579353014628</v>
       </c>
       <c r="E21" t="n">
-        <v>414645778026.6667</v>
+        <v>391248917333.3333</v>
       </c>
       <c r="F21" t="n">
-        <v>16.83250045776367</v>
+        <v>6.873299121856689</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -960,22 +960,22 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.426642179489136</v>
+        <v>1.178673982620239</v>
       </c>
       <c r="B22" t="n">
-        <v>54.45344924926758</v>
+        <v>18.93181610107422</v>
       </c>
       <c r="C22" t="n">
-        <v>3.679067134857178</v>
+        <v>2.916992425918579</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2357951164245606</v>
+        <v>-0.6263953765233358</v>
       </c>
       <c r="E22" t="n">
-        <v>404784314240</v>
+        <v>314441010346.6667</v>
       </c>
       <c r="F22" t="n">
-        <v>16.83502769470215</v>
+        <v>13.16749477386475</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -985,22 +985,22 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.35850989818573</v>
+        <v>1.561514616012573</v>
       </c>
       <c r="B23" t="n">
-        <v>50.7301139831543</v>
+        <v>13.2316951751709</v>
       </c>
       <c r="C23" t="n">
-        <v>3.589860677719116</v>
+        <v>2.968321800231934</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0620303750038147</v>
+        <v>-5.510642260313034</v>
       </c>
       <c r="E23" t="n">
-        <v>330562519040</v>
+        <v>785552986453.3334</v>
       </c>
       <c r="F23" t="n">
-        <v>16.41303062438965</v>
+        <v>12.14563846588135</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1010,22 +1010,22 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.440906405448914</v>
+        <v>1.412434101104736</v>
       </c>
       <c r="B24" t="n">
-        <v>48.7562255859375</v>
+        <v>13.69243049621582</v>
       </c>
       <c r="C24" t="n">
-        <v>3.623382806777954</v>
+        <v>2.909466505050659</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.136185359954834</v>
+        <v>-7.053985782464346</v>
       </c>
       <c r="E24" t="n">
-        <v>417722059306.6667</v>
+        <v>621447166293.3334</v>
       </c>
       <c r="F24" t="n">
-        <v>16.52604293823242</v>
+        <v>11.98299503326416</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1035,22 +1035,22 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.717911005020142</v>
+        <v>0.964814305305481</v>
       </c>
       <c r="B25" t="n">
-        <v>51.86695861816406</v>
+        <v>14.17153263092041</v>
       </c>
       <c r="C25" t="n">
-        <v>3.792582750320435</v>
+        <v>2.473945379257202</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.4690909783045451</v>
+        <v>-0.1463442663351695</v>
       </c>
       <c r="E25" t="n">
-        <v>708224593173.3334</v>
+        <v>241622698453.3333</v>
       </c>
       <c r="F25" t="n">
-        <v>17.50565338134766</v>
+        <v>9.310647964477539</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1060,22 +1060,22 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.582382917404175</v>
+        <v>1.186913371086121</v>
       </c>
       <c r="B26" t="n">
-        <v>45.98152542114258</v>
+        <v>11.6499662399292</v>
       </c>
       <c r="C26" t="n">
-        <v>3.674090147018433</v>
+        <v>2.315177202224731</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3152522762616475</v>
+        <v>-3.665288577477137</v>
       </c>
       <c r="E26" t="n">
-        <v>569176570880</v>
+        <v>562641865386.6666</v>
       </c>
       <c r="F26" t="n">
-        <v>16.64914894104004</v>
+        <v>7.371493816375732</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1085,22 +1085,22 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.74072790145874</v>
+        <v>1.130888700485229</v>
       </c>
       <c r="B27" t="n">
-        <v>46.64236068725586</v>
+        <v>13.91961002349854</v>
       </c>
       <c r="C27" t="n">
-        <v>3.712287664413452</v>
+        <v>2.375137090682983</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.4691001097361246</v>
+        <v>-0.6446920812129975</v>
       </c>
       <c r="E27" t="n">
-        <v>742748853760</v>
+        <v>471985000746.6667</v>
       </c>
       <c r="F27" t="n">
-        <v>16.72640228271484</v>
+        <v>8.254831314086914</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1110,22 +1110,22 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.788916707038879</v>
+        <v>1.179495930671692</v>
       </c>
       <c r="B28" t="n">
-        <v>33.40922927856445</v>
+        <v>18.93356704711914</v>
       </c>
       <c r="C28" t="n">
-        <v>3.746084451675415</v>
+        <v>2.910408735275269</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.5165083090464274</v>
+        <v>-0.4477840006351471</v>
       </c>
       <c r="E28" t="n">
-        <v>796004653226.6666</v>
+        <v>317858911573.3333</v>
       </c>
       <c r="F28" t="n">
-        <v>16.93704605102539</v>
+        <v>13.12390995025635</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1135,22 +1135,22 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.780991435050964</v>
+        <v>1.303315401077271</v>
       </c>
       <c r="B29" t="n">
-        <v>27.30521583557129</v>
+        <v>15.66668128967285</v>
       </c>
       <c r="C29" t="n">
-        <v>3.768811941146851</v>
+        <v>2.784347295761108</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.5932425340016683</v>
+        <v>-3.90057168006897</v>
       </c>
       <c r="E29" t="n">
-        <v>783958290773.3334</v>
+        <v>530443823360</v>
       </c>
       <c r="F29" t="n">
-        <v>17.03542518615723</v>
+        <v>11.7893238067627</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1160,22 +1160,22 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.613056540489197</v>
+        <v>1.474486231803894</v>
       </c>
       <c r="B30" t="n">
-        <v>40.4328498840332</v>
+        <v>13.90216064453125</v>
       </c>
       <c r="C30" t="n">
-        <v>3.758808612823486</v>
+        <v>2.871328830718994</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.4138146996498108</v>
+        <v>-8.645506364107131</v>
       </c>
       <c r="E30" t="n">
-        <v>592164168160</v>
+        <v>718355167573.3334</v>
       </c>
       <c r="F30" t="n">
-        <v>17.28392219543457</v>
+        <v>11.75603675842285</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1185,22 +1185,22 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.775779724121094</v>
+        <v>0.8167254328727722</v>
       </c>
       <c r="B31" t="n">
-        <v>47.21681976318359</v>
+        <v>13.77981662750244</v>
       </c>
       <c r="C31" t="n">
-        <v>3.841583251953125</v>
+        <v>2.332554340362549</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.8661732951800029</v>
+        <v>0.1052255054314931</v>
       </c>
       <c r="E31" t="n">
-        <v>777191642453.3334</v>
+        <v>121431333546.6667</v>
       </c>
       <c r="F31" t="n">
-        <v>17.49871826171875</v>
+        <v>9.13267707824707</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1210,22 +1210,22 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.701514959335327</v>
+        <v>1.139596223831177</v>
       </c>
       <c r="B32" t="n">
-        <v>40.89462661743164</v>
+        <v>12.43438911437988</v>
       </c>
       <c r="C32" t="n">
-        <v>3.943970680236816</v>
+        <v>2.292069673538208</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.9823213736216228</v>
+        <v>-2.361651845773061</v>
       </c>
       <c r="E32" t="n">
-        <v>690589997226.6666</v>
+        <v>515554171946.6667</v>
       </c>
       <c r="F32" t="n">
-        <v>18.64751243591309</v>
+        <v>7.812880992889404</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1235,22 +1235,22 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.7967449426651</v>
+        <v>1.051895976066589</v>
       </c>
       <c r="B33" t="n">
-        <v>39.54308319091797</v>
+        <v>13.18929004669189</v>
       </c>
       <c r="C33" t="n">
-        <v>3.914231061935425</v>
+        <v>2.167747020721436</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.9302772204081218</v>
+        <v>-0.9363532483577728</v>
       </c>
       <c r="E33" t="n">
-        <v>798508289706.6666</v>
+        <v>444743869440</v>
       </c>
       <c r="F33" t="n">
-        <v>18.18734169006348</v>
+        <v>7.316030979156494</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1260,22 +1260,22 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.76287841796875</v>
+        <v>1.156381726264954</v>
       </c>
       <c r="B34" t="n">
-        <v>34.69051742553711</v>
+        <v>18.55298614501953</v>
       </c>
       <c r="C34" t="n">
-        <v>3.728305101394653</v>
+        <v>2.913923740386963</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.4310853203137716</v>
+        <v>-0.5280007819334666</v>
       </c>
       <c r="E34" t="n">
-        <v>766666670080</v>
+        <v>291390563413.3333</v>
       </c>
       <c r="F34" t="n">
-        <v>16.88577651977539</v>
+        <v>13.16611003875732</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1285,22 +1285,22 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.836408734321594</v>
+        <v>1.602811455726624</v>
       </c>
       <c r="B35" t="n">
-        <v>29.51497650146484</v>
+        <v>13.57063674926758</v>
       </c>
       <c r="C35" t="n">
-        <v>3.788824558258057</v>
+        <v>3.00110125541687</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.5862325469652812</v>
+        <v>-7.817652855316798</v>
       </c>
       <c r="E35" t="n">
-        <v>845472649386.6666</v>
+        <v>817187124053.3334</v>
       </c>
       <c r="F35" t="n">
-        <v>17.21987915039062</v>
+        <v>12.42473316192627</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1310,22 +1310,22 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.141320943832397</v>
+        <v>1.387073397636414</v>
       </c>
       <c r="B36" t="n">
-        <v>47.37777328491211</v>
+        <v>13.77203273773193</v>
       </c>
       <c r="C36" t="n">
-        <v>3.914554834365845</v>
+        <v>2.902480125427246</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.8953089475631714</v>
+        <v>-5.020011848211288</v>
       </c>
       <c r="E36" t="n">
-        <v>1174200403626.667</v>
+        <v>584375749973.3334</v>
       </c>
       <c r="F36" t="n">
-        <v>18.08290863037109</v>
+        <v>12.16034889221191</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1335,22 +1335,22 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.819636225700378</v>
+        <v>0.9393112659454346</v>
       </c>
       <c r="B37" t="n">
-        <v>42.3990592956543</v>
+        <v>13.74770641326904</v>
       </c>
       <c r="C37" t="n">
-        <v>3.805821895599365</v>
+        <v>2.400399923324585</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.637619678179423</v>
+        <v>-0.2886225064595541</v>
       </c>
       <c r="E37" t="n">
-        <v>823654163626.6666</v>
+        <v>243125012533.3333</v>
       </c>
       <c r="F37" t="n">
-        <v>17.34804725646973</v>
+        <v>9.193994522094727</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1360,22 +1360,22 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.703550338745117</v>
+        <v>1.131127119064331</v>
       </c>
       <c r="B38" t="n">
-        <v>43.06990432739258</v>
+        <v>12.14517021179199</v>
       </c>
       <c r="C38" t="n">
-        <v>3.822142601013184</v>
+        <v>2.281510591506958</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.7112365007400513</v>
+        <v>-2.593413144350052</v>
       </c>
       <c r="E38" t="n">
-        <v>694919810986.6666</v>
+        <v>510435143680</v>
       </c>
       <c r="F38" t="n">
-        <v>17.69072532653809</v>
+        <v>7.688671588897705</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1385,22 +1385,22 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.019992589950562</v>
+        <v>1.121436238288879</v>
       </c>
       <c r="B39" t="n">
-        <v>38.49806976318359</v>
+        <v>12.74007034301758</v>
       </c>
       <c r="C39" t="n">
-        <v>4.004695415496826</v>
+        <v>2.306507110595703</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.166359114646912</v>
+        <v>-0.944856071472168</v>
       </c>
       <c r="E39" t="n">
-        <v>1041335412586.667</v>
+        <v>478702111573.3333</v>
       </c>
       <c r="F39" t="n">
-        <v>18.8818531036377</v>
+        <v>8.094269752502441</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1410,22 +1410,22 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.64772617816925</v>
+        <v>1.127223372459412</v>
       </c>
       <c r="B40" t="n">
-        <v>50.97104644775391</v>
+        <v>18.34797096252441</v>
       </c>
       <c r="C40" t="n">
-        <v>3.704513311386108</v>
+        <v>2.846887350082397</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.4267736713091532</v>
+        <v>-0.5377565483252208</v>
       </c>
       <c r="E40" t="n">
-        <v>640191391573.3334</v>
+        <v>286027604053.3333</v>
       </c>
       <c r="F40" t="n">
-        <v>16.77958488464355</v>
+        <v>12.82562351226807</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1435,22 +1435,22 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.724249958992004</v>
+        <v>1.276214122772217</v>
       </c>
       <c r="B41" t="n">
-        <v>42.83964920043945</v>
+        <v>11.87106323242188</v>
       </c>
       <c r="C41" t="n">
-        <v>3.728540182113647</v>
+        <v>2.777992963790894</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.6047855377197265</v>
+        <v>-6.800929439067841</v>
       </c>
       <c r="E41" t="n">
-        <v>722580427946.6666</v>
+        <v>516516682240</v>
       </c>
       <c r="F41" t="n">
-        <v>16.79951095581055</v>
+        <v>11.44830131530762</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1460,22 +1460,22 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.482308745384216</v>
+        <v>1.712916135787964</v>
       </c>
       <c r="B42" t="n">
-        <v>58.52895355224609</v>
+        <v>8.966189384460449</v>
       </c>
       <c r="C42" t="n">
-        <v>3.665476322174072</v>
+        <v>3.019046068191528</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2383799433708191</v>
+        <v>-15.33253131707509</v>
       </c>
       <c r="E42" t="n">
-        <v>459590367146.6667</v>
+        <v>1008187161600</v>
       </c>
       <c r="F42" t="n">
-        <v>16.72138023376465</v>
+        <v>11.50290870666504</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1485,22 +1485,22 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.42654824256897</v>
+        <v>1.026357889175415</v>
       </c>
       <c r="B43" t="n">
-        <v>62.61589431762695</v>
+        <v>13.70229244232178</v>
       </c>
       <c r="C43" t="n">
-        <v>3.674721240997314</v>
+        <v>2.353917837142944</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2301756660143534</v>
+        <v>-5.114489410320918</v>
       </c>
       <c r="E43" t="n">
-        <v>392242367573.3333</v>
+        <v>336521304800</v>
       </c>
       <c r="F43" t="n">
-        <v>16.8307991027832</v>
+        <v>8.851916313171387</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1510,22 +1510,22 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.454670786857605</v>
+        <v>1.160401582717896</v>
       </c>
       <c r="B44" t="n">
-        <v>57.31682968139648</v>
+        <v>11.08643627166748</v>
       </c>
       <c r="C44" t="n">
-        <v>3.695742607116699</v>
+        <v>2.32874608039856</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2370224754015605</v>
+        <v>-6.187866469224294</v>
       </c>
       <c r="E44" t="n">
-        <v>420980525440</v>
+        <v>533360274986.6667</v>
       </c>
       <c r="F44" t="n">
-        <v>16.99264907836914</v>
+        <v>8.160765647888184</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1535,22 +1535,22 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.502831816673279</v>
+        <v>1.294013857841492</v>
       </c>
       <c r="B45" t="n">
-        <v>54.98895645141602</v>
+        <v>11.64713573455811</v>
       </c>
       <c r="C45" t="n">
-        <v>3.726359605789185</v>
+        <v>2.527446031570435</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.3172505140304566</v>
+        <v>-10.5132588048776</v>
       </c>
       <c r="E45" t="n">
-        <v>468230098346.6667</v>
+        <v>645083960320</v>
       </c>
       <c r="F45" t="n">
-        <v>17.1602897644043</v>
+        <v>8.884176254272461</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1560,22 +1560,22 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.738423466682434</v>
+        <v>1.192286372184753</v>
       </c>
       <c r="B46" t="n">
-        <v>36.78580474853516</v>
+        <v>18.69682121276855</v>
       </c>
       <c r="C46" t="n">
-        <v>3.741352558135986</v>
+        <v>2.915089130401611</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.513713558514913</v>
+        <v>-0.6465242803096771</v>
       </c>
       <c r="E46" t="n">
-        <v>737428928000</v>
+        <v>330719636480</v>
       </c>
       <c r="F46" t="n">
-        <v>16.93592071533203</v>
+        <v>13.15338134765625</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1585,22 +1585,22 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.754131555557251</v>
+        <v>1.423213958740234</v>
       </c>
       <c r="B47" t="n">
-        <v>32.20827865600586</v>
+        <v>12.97570896148682</v>
       </c>
       <c r="C47" t="n">
-        <v>3.760024309158325</v>
+        <v>2.913786172866821</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.6424126029014587</v>
+        <v>-4.220808800061544</v>
       </c>
       <c r="E47" t="n">
-        <v>753010695680</v>
+        <v>636404777813.3334</v>
       </c>
       <c r="F47" t="n">
-        <v>17.00557708740234</v>
+        <v>11.99912643432617</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1610,22 +1610,22 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.554593324661255</v>
+        <v>1.471919894218445</v>
       </c>
       <c r="B48" t="n">
-        <v>54.12669372558594</v>
+        <v>12.0271167755127</v>
       </c>
       <c r="C48" t="n">
-        <v>3.672654628753662</v>
+        <v>2.937194108963013</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2668789505958557</v>
+        <v>-5.171105873584747</v>
       </c>
       <c r="E48" t="n">
-        <v>535441291093.3333</v>
+        <v>688192413866.6666</v>
       </c>
       <c r="F48" t="n">
-        <v>16.72234916687012</v>
+        <v>11.98133373260498</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1635,22 +1635,22 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.495668292045593</v>
+        <v>1.01641571521759</v>
       </c>
       <c r="B49" t="n">
-        <v>52.43216323852539</v>
+        <v>12.45145511627197</v>
       </c>
       <c r="C49" t="n">
-        <v>3.69697642326355</v>
+        <v>2.429701328277588</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.3216982404390971</v>
+        <v>-2.398284840583801</v>
       </c>
       <c r="E49" t="n">
-        <v>466456746240</v>
+        <v>331681934293.3333</v>
       </c>
       <c r="F49" t="n">
-        <v>16.89584732055664</v>
+        <v>8.757077217102051</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1660,22 +1660,22 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.637244343757629</v>
+        <v>1.199893712997437</v>
       </c>
       <c r="B50" t="n">
-        <v>57.98477554321289</v>
+        <v>10.86801528930664</v>
       </c>
       <c r="C50" t="n">
-        <v>3.714130163192749</v>
+        <v>2.3469078540802</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.3662455519040426</v>
+        <v>-4.645827345053354</v>
       </c>
       <c r="E50" t="n">
-        <v>632852818880</v>
+        <v>567579453013.3334</v>
       </c>
       <c r="F50" t="n">
-        <v>16.89230155944824</v>
+        <v>8.290019035339355</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1685,22 +1685,22 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.633424282073975</v>
+        <v>1.217947125434875</v>
       </c>
       <c r="B51" t="n">
-        <v>60.87975311279297</v>
+        <v>10.14797115325928</v>
       </c>
       <c r="C51" t="n">
-        <v>3.787741661071777</v>
+        <v>2.408145427703857</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.4567412137985229</v>
+        <v>-5.292911628882091</v>
       </c>
       <c r="E51" t="n">
-        <v>611641955626.6666</v>
+        <v>586644208640</v>
       </c>
       <c r="F51" t="n">
-        <v>17.48268508911133</v>
+        <v>8.099567413330078</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1710,624 +1710,899 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.705778002738953</v>
+        <v>0.9515131711959839</v>
       </c>
       <c r="B52" t="n">
-        <v>44.40709686279297</v>
+        <v>20.84340286254883</v>
       </c>
       <c r="C52" t="n">
-        <v>3.729133367538452</v>
+        <v>2.979773998260498</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.5407967646916707</v>
+        <v>-0.1154014686743418</v>
       </c>
       <c r="E52" t="n">
-        <v>702300602026.6666</v>
+        <v>51148476266.66666</v>
       </c>
       <c r="F52" t="n">
-        <v>16.87670516967773</v>
+        <v>13.80709934234619</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.652262926101685</v>
+        <v>1.102677702903748</v>
       </c>
       <c r="B53" t="n">
-        <v>42.00891876220703</v>
+        <v>17.51926803588867</v>
       </c>
       <c r="C53" t="n">
-        <v>3.706898212432861</v>
+        <v>2.954928874969482</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.4261594851811727</v>
+        <v>-0.8243375758330027</v>
       </c>
       <c r="E53" t="n">
-        <v>643087970986.6666</v>
+        <v>224958373120</v>
       </c>
       <c r="F53" t="n">
-        <v>16.81250190734863</v>
+        <v>13.32051563262939</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.578614473342896</v>
+        <v>1.509747266769409</v>
       </c>
       <c r="B54" t="n">
-        <v>62.29022216796875</v>
+        <v>7.891082286834717</v>
       </c>
       <c r="C54" t="n">
-        <v>3.694941997528076</v>
+        <v>3.140460968017578</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.3185939987500508</v>
+        <v>-17.30909581581751</v>
       </c>
       <c r="E54" t="n">
-        <v>559007466666.6666</v>
+        <v>741422638933.3334</v>
       </c>
       <c r="F54" t="n">
-        <v>16.82367134094238</v>
+        <v>12.303391456604</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.448298215866089</v>
+        <v>2.936729431152344</v>
       </c>
       <c r="B55" t="n">
-        <v>60.61956405639648</v>
+        <v>10.68938159942627</v>
       </c>
       <c r="C55" t="n">
-        <v>3.683424949645996</v>
+        <v>4.037400722503662</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.268731689453125</v>
+        <v>-83.37112914522488</v>
       </c>
       <c r="E55" t="n">
-        <v>418084991573.3333</v>
+        <v>2300894426453.333</v>
       </c>
       <c r="F55" t="n">
-        <v>16.85675811767578</v>
+        <v>16.95488357543945</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.490048289299011</v>
+        <v>0.936095118522644</v>
       </c>
       <c r="B56" t="n">
-        <v>56.36212539672852</v>
+        <v>20.68885612487793</v>
       </c>
       <c r="C56" t="n">
-        <v>3.703777551651001</v>
+        <v>2.980762004852295</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.2498116254806519</v>
+        <v>-0.0840356429417928</v>
       </c>
       <c r="E56" t="n">
-        <v>463198600640</v>
+        <v>35536768480</v>
       </c>
       <c r="F56" t="n">
-        <v>17.00725364685059</v>
+        <v>13.83517742156982</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.436173558235168</v>
+        <v>1.003801584243774</v>
       </c>
       <c r="B57" t="n">
-        <v>53.9495735168457</v>
+        <v>19.47177124023438</v>
       </c>
       <c r="C57" t="n">
-        <v>3.708266496658325</v>
+        <v>2.966235637664795</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.2547890981038411</v>
+        <v>-0.2278487583001455</v>
       </c>
       <c r="E57" t="n">
-        <v>402316380586.6667</v>
+        <v>111759353600</v>
       </c>
       <c r="F57" t="n">
-        <v>17.09281349182129</v>
+        <v>13.6131763458252</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.689984679222107</v>
+        <v>1.563444852828979</v>
       </c>
       <c r="B58" t="n">
-        <v>35.54852294921875</v>
+        <v>13.90854835510254</v>
       </c>
       <c r="C58" t="n">
-        <v>3.744198083877563</v>
+        <v>3.032131195068359</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.5462680617968242</v>
+        <v>-7.951896790663401</v>
       </c>
       <c r="E58" t="n">
-        <v>682857376426.6666</v>
+        <v>756736254293.3334</v>
       </c>
       <c r="F58" t="n">
-        <v>16.98186874389648</v>
+        <v>12.65150928497314</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.625278949737549</v>
+        <v>1.875316262245178</v>
       </c>
       <c r="B59" t="n">
-        <v>37.86117935180664</v>
+        <v>9.206089019775391</v>
       </c>
       <c r="C59" t="n">
-        <v>3.72753381729126</v>
+        <v>3.262797832489014</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.5160894552866618</v>
+        <v>-23.19036798278491</v>
       </c>
       <c r="E59" t="n">
-        <v>612077428053.3334</v>
+        <v>1126052379306.667</v>
       </c>
       <c r="F59" t="n">
-        <v>16.92107582092285</v>
+        <v>12.86837673187256</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.502102255821228</v>
+        <v>0.9689686298370361</v>
       </c>
       <c r="B60" t="n">
-        <v>52.88875961303711</v>
+        <v>20.09618759155273</v>
       </c>
       <c r="C60" t="n">
-        <v>3.676249742507935</v>
+        <v>2.965587377548218</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.296123739083608</v>
+        <v>-0.158013395468394</v>
       </c>
       <c r="E60" t="n">
-        <v>478910105173.3333</v>
+        <v>75700846293.33333</v>
       </c>
       <c r="F60" t="n">
-        <v>16.74601936340332</v>
+        <v>13.66548538208008</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.506081223487854</v>
+        <v>1.051030993461609</v>
       </c>
       <c r="B61" t="n">
-        <v>55.32115173339844</v>
+        <v>19.39552879333496</v>
       </c>
       <c r="C61" t="n">
-        <v>3.664829015731812</v>
+        <v>2.961190462112427</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.2405544956525167</v>
+        <v>-0.5221633772055309</v>
       </c>
       <c r="E61" t="n">
-        <v>488537592746.6667</v>
+        <v>163942959360</v>
       </c>
       <c r="F61" t="n">
-        <v>16.67380714416504</v>
+        <v>13.51931285858154</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.682737827301025</v>
+        <v>2.20274806022644</v>
       </c>
       <c r="B62" t="n">
-        <v>61.02311706542969</v>
+        <v>9.812229156494141</v>
       </c>
       <c r="C62" t="n">
-        <v>3.766549348831177</v>
+        <v>3.504218578338623</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.4684164444605509</v>
+        <v>-28.54316889842351</v>
       </c>
       <c r="E62" t="n">
-        <v>679462945706.6666</v>
+        <v>1555040269653.333</v>
       </c>
       <c r="F62" t="n">
-        <v>17.25029373168945</v>
+        <v>13.75712203979492</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.614595890045166</v>
+        <v>1.626800365019331</v>
       </c>
       <c r="B63" t="n">
-        <v>60.13800430297852</v>
+        <v>39.89816754444134</v>
       </c>
       <c r="C63" t="n">
-        <v>3.722511768341064</v>
+        <v>3.382903439671813</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.3196156700452169</v>
+        <v>0.0008215119581490571</v>
       </c>
       <c r="E63" t="n">
-        <v>601888697173.3334</v>
+        <v>808099409104.1541</v>
       </c>
       <c r="F63" t="n">
-        <v>17.04835891723633</v>
+        <v>11.4443056892384</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>pixel_wise_LR</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.887980937957764</v>
+        <v>2.410109281539917</v>
       </c>
       <c r="B64" t="n">
-        <v>35.88680267333984</v>
+        <v>13.40559577941895</v>
       </c>
       <c r="C64" t="n">
-        <v>3.796441078186035</v>
+        <v>3.608201503753662</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.7026220281918844</v>
+        <v>-67.8621615966161</v>
       </c>
       <c r="E64" t="n">
-        <v>901310708053.3334</v>
+        <v>1778029165226.667</v>
       </c>
       <c r="F64" t="n">
-        <v>17.13855934143066</v>
+        <v>13.85752868652344</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.796168565750122</v>
+        <v>0.9303475618362427</v>
       </c>
       <c r="B65" t="n">
-        <v>42.06105804443359</v>
+        <v>20.94476318359375</v>
       </c>
       <c r="C65" t="n">
-        <v>3.724769115447998</v>
+        <v>2.989015102386475</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.4305775721867879</v>
+        <v>-0.09148204525311789</v>
       </c>
       <c r="E65" t="n">
-        <v>802712139093.3334</v>
+        <v>27032106240</v>
       </c>
       <c r="F65" t="n">
-        <v>16.87800216674805</v>
+        <v>13.89099788665771</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.013911962509155</v>
+        <v>0.9488810896873474</v>
       </c>
       <c r="B66" t="n">
-        <v>38.11232757568359</v>
+        <v>20.72311973571777</v>
       </c>
       <c r="C66" t="n">
-        <v>3.907994031906128</v>
+        <v>2.982306718826294</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.9469257513682048</v>
+        <v>-0.1196286102135976</v>
       </c>
       <c r="E66" t="n">
-        <v>1036009303040</v>
+        <v>48674569280</v>
       </c>
       <c r="F66" t="n">
-        <v>18.03787040710449</v>
+        <v>13.81336975097656</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.833113431930542</v>
+        <v>1.385486602783203</v>
       </c>
       <c r="B67" t="n">
-        <v>40.62649917602539</v>
+        <v>15.34421348571777</v>
       </c>
       <c r="C67" t="n">
-        <v>3.813082695007324</v>
+        <v>2.994582891464233</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.6144602060317993</v>
+        <v>-3.713426854213079</v>
       </c>
       <c r="E67" t="n">
-        <v>835385175893.3334</v>
+        <v>549147341653.3333</v>
       </c>
       <c r="F67" t="n">
-        <v>17.43823623657227</v>
+        <v>12.81853008270264</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.722618460655212</v>
+        <v>1.628484886199232</v>
       </c>
       <c r="B68" t="n">
-        <v>38.97708892822266</v>
+        <v>39.36940916856574</v>
       </c>
       <c r="C68" t="n">
-        <v>3.829134941101074</v>
+        <v>3.384304603221016</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.5079375346501668</v>
+        <v>-6.82848756261567e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>709642475946.6666</v>
+        <v>808829507784.8673</v>
       </c>
       <c r="F68" t="n">
-        <v>17.820068359375</v>
+        <v>11.45378235680822</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>pixel_wise_LR</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.807041883468628</v>
+        <v>1.981781482696533</v>
       </c>
       <c r="B69" t="n">
-        <v>31.96239280700684</v>
+        <v>13.07384872436523</v>
       </c>
       <c r="C69" t="n">
-        <v>4.012864589691162</v>
+        <v>3.285103559494019</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.197257951895396</v>
+        <v>-24.09944618741671</v>
       </c>
       <c r="E69" t="n">
-        <v>796988452586.6666</v>
+        <v>1238732274346.667</v>
       </c>
       <c r="F69" t="n">
-        <v>19.12263107299805</v>
+        <v>13.07517337799072</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.770404696464539</v>
+        <v>0.9833441376686096</v>
       </c>
       <c r="B70" t="n">
-        <v>30.39508056640625</v>
+        <v>20.58142471313477</v>
       </c>
       <c r="C70" t="n">
-        <v>3.734843254089355</v>
+        <v>2.987484455108643</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.4327401757240296</v>
+        <v>-0.2254220883051554</v>
       </c>
       <c r="E70" t="n">
-        <v>773058535253.3334</v>
+        <v>82820781013.33333</v>
       </c>
       <c r="F70" t="n">
-        <v>16.9508228302002</v>
+        <v>13.81078433990479</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.684278964996338</v>
+        <v>1.010405898094177</v>
       </c>
       <c r="B71" t="n">
-        <v>43.47537994384766</v>
+        <v>19.96537590026855</v>
       </c>
       <c r="C71" t="n">
-        <v>3.676263332366943</v>
+        <v>2.952873468399048</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.2971864581108093</v>
+        <v>-0.2634829382101695</v>
       </c>
       <c r="E71" t="n">
-        <v>682633587200</v>
+        <v>122775074773.3333</v>
       </c>
       <c r="F71" t="n">
-        <v>16.64619827270508</v>
+        <v>13.51699352264404</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.889405727386475</v>
+        <v>3.297963857650757</v>
       </c>
       <c r="B72" t="n">
-        <v>42.77304840087891</v>
+        <v>34.81055068969727</v>
       </c>
       <c r="C72" t="n">
-        <v>3.800814867019653</v>
+        <v>5.101031303405762</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.6259629011154175</v>
+        <v>-91.3411421517531</v>
       </c>
       <c r="E72" t="n">
-        <v>902606219946.6666</v>
+        <v>2246946474666.667</v>
       </c>
       <c r="F72" t="n">
-        <v>17.3019905090332</v>
+        <v>30.64195823669434</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.699240922927856</v>
+        <v>2.390466213226318</v>
       </c>
       <c r="B73" t="n">
-        <v>45.67408752441406</v>
+        <v>10.92068481445312</v>
       </c>
       <c r="C73" t="n">
-        <v>3.782418727874756</v>
+        <v>3.668397665023804</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.5479863166809082</v>
+        <v>-62.33702510595322</v>
       </c>
       <c r="E73" t="n">
-        <v>681522147413.3334</v>
+        <v>1746994107733.333</v>
       </c>
       <c r="F73" t="n">
-        <v>17.33198165893555</v>
+        <v>14.6037654876709</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.827216625213623</v>
+        <v>0.9350870251655579</v>
       </c>
       <c r="B74" t="n">
-        <v>44.94707107543945</v>
+        <v>20.81766700744629</v>
       </c>
       <c r="C74" t="n">
-        <v>3.952747344970703</v>
+        <v>2.986876726150513</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.083155369758606</v>
+        <v>-0.0979370395342509</v>
       </c>
       <c r="E74" t="n">
-        <v>817046929706.6666</v>
+        <v>32641039253.33333</v>
       </c>
       <c r="F74" t="n">
-        <v>18.63593292236328</v>
+        <v>13.87038993835449</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.149657487869263</v>
+        <v>0.9611669182777405</v>
       </c>
       <c r="B75" t="n">
-        <v>31.7935791015625</v>
+        <v>20.49828910827637</v>
       </c>
       <c r="C75" t="n">
-        <v>4.091062545776367</v>
+        <v>2.976312398910522</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.479648399353027</v>
+        <v>-0.1353277901808421</v>
       </c>
       <c r="E75" t="n">
-        <v>1173342161066.667</v>
+        <v>63578787200</v>
       </c>
       <c r="F75" t="n">
-        <v>19.42381477355957</v>
+        <v>13.74493503570557</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>img_wise_CNN</t>
+          <t>img_wise_CNN_improved</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.272963047027588</v>
+        <v>2.673217664479061</v>
       </c>
       <c r="B76" t="n">
-        <v>53.94136047363281</v>
+        <v>22.93621602107457</v>
       </c>
       <c r="C76" t="n">
-        <v>3.637452363967896</v>
+        <v>4.264924518196175</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.09520560105641683</v>
+        <v>-2.000492434990342e-05</v>
       </c>
       <c r="E76" t="n">
-        <v>226348610133.3333</v>
+        <v>1303527651518.653</v>
       </c>
       <c r="F76" t="n">
-        <v>16.81589889526367</v>
+        <v>18.1897494066536</v>
       </c>
       <c r="G76" t="inlineStr">
+        <is>
+          <t>pixel_wise_LR</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.371716260910034</v>
+      </c>
+      <c r="B77" t="n">
+        <v>17.46578216552734</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.958183765411377</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-4.053388418753942</v>
+      </c>
+      <c r="E77" t="n">
+        <v>550082167466.6666</v>
+      </c>
+      <c r="F77" t="n">
+        <v>12.53010177612305</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>img_wise_CNN_improved</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1.958126187324524</v>
+      </c>
+      <c r="B78" t="n">
+        <v>10.27794933319092</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3.298665046691895</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-31.00793185432752</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1249359247360</v>
+      </c>
+      <c r="F78" t="n">
+        <v>12.71597290039062</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>img_wise_CNN_improved</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2.674864344705859</v>
+      </c>
+      <c r="B79" t="n">
+        <v>22.83609904132106</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.264923527095275</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-1.938573523319054e-05</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1303991103479.525</v>
+      </c>
+      <c r="F79" t="n">
+        <v>18.18974399527686</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>pixel_wise_LR</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.9597536325454712</v>
+      </c>
+      <c r="B80" t="n">
+        <v>20.03841209411621</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.967005729675293</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.096857088804245</v>
+      </c>
+      <c r="E80" t="n">
+        <v>64547455680</v>
+      </c>
+      <c r="F80" t="n">
+        <v>13.70296955108643</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>img_wise_CNN_improved</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.053034543991089</v>
+      </c>
+      <c r="B81" t="n">
+        <v>18.80097389221191</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.937581777572632</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.4651488482952118</v>
+      </c>
+      <c r="E81" t="n">
+        <v>175636427520</v>
+      </c>
+      <c r="F81" t="n">
+        <v>13.26979064941406</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>img_wise_CNN_improved</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.823939204216003</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6.850127696990967</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.205416440963745</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-23.55650559266408</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1106235987626.667</v>
+      </c>
+      <c r="F82" t="n">
+        <v>12.09031391143799</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>img_wise_CNN_improved</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2.727337598800659</v>
+      </c>
+      <c r="B83" t="n">
+        <v>9.349386215209961</v>
+      </c>
+      <c r="C83" t="n">
+        <v>4.031483173370361</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-87.99631552696228</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2087276161706.667</v>
+      </c>
+      <c r="F83" t="n">
+        <v>16.8964900970459</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>img_wise_CNN_improved</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.9398878216743469</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20.54245185852051</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.982604265213013</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.09193381269772848</v>
+      </c>
+      <c r="E84" t="n">
+        <v>38840427626.66666</v>
+      </c>
+      <c r="F84" t="n">
+        <v>13.83748340606689</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>img_wise_CNN_improved</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.010451793670654</v>
+      </c>
+      <c r="B85" t="n">
+        <v>19.68171119689941</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.972347497940063</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.2280820031960805</v>
+      </c>
+      <c r="E85" t="n">
+        <v>115858798933.3333</v>
+      </c>
+      <c r="F85" t="n">
+        <v>13.66244888305664</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>img_wise_CNN_improved</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.225619912147522</v>
+      </c>
+      <c r="B86" t="n">
+        <v>16.42093086242676</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.944518327713013</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-1.484193446238836</v>
+      </c>
+      <c r="E86" t="n">
+        <v>371361635840</v>
+      </c>
+      <c r="F86" t="n">
+        <v>13.01678848266602</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>img_wise_CNN_improved</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.820551753044128</v>
+      </c>
+      <c r="B87" t="n">
+        <v>10.49820137023926</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.223299264907837</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-17.46800976991653</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1046728093013.333</v>
+      </c>
+      <c r="F87" t="n">
+        <v>12.99198627471924</v>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>img_wise_CNN_improved</t>
         </is>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2608,6 +2608,306 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1.650161862373352</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19.03447532653809</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.006619691848755</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-3.995945549011231</v>
+      </c>
+      <c r="E88" t="n">
+        <v>816798144853.3334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>13.17663955688477</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1.588959097862244</v>
+      </c>
+      <c r="B89" t="n">
+        <v>18.71145248413086</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.979394674301147</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-4.191182188193003</v>
+      </c>
+      <c r="E89" t="n">
+        <v>757187095893.3334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>13.04792976379395</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1.668230295181274</v>
+      </c>
+      <c r="B90" t="n">
+        <v>19.147216796875</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.011818170547485</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-4.534433472156524</v>
+      </c>
+      <c r="E90" t="n">
+        <v>836507857920</v>
+      </c>
+      <c r="F90" t="n">
+        <v>13.17269325256348</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1.702247381210327</v>
+      </c>
+      <c r="B91" t="n">
+        <v>18.97835350036621</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.012221574783325</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-5.138204882542293</v>
+      </c>
+      <c r="E91" t="n">
+        <v>877138566826.6666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>13.09776401519775</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.634775280952454</v>
+      </c>
+      <c r="B92" t="n">
+        <v>11.55826473236084</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.015115022659302</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-9.503836834430695</v>
+      </c>
+      <c r="E92" t="n">
+        <v>868833298773.3334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12.20953750610352</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1.032513856887817</v>
+      </c>
+      <c r="B93" t="n">
+        <v>10.64773464202881</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.180322408676147</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.6209993163744608</v>
+      </c>
+      <c r="E93" t="n">
+        <v>426068094400</v>
+      </c>
+      <c r="F93" t="n">
+        <v>7.478979110717773</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.509198904037476</v>
+      </c>
+      <c r="B94" t="n">
+        <v>13.64140129089355</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.947011232376099</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-8.171870948870977</v>
+      </c>
+      <c r="E94" t="n">
+        <v>714907570346.6666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>12.29631900787354</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.061923384666443</v>
+      </c>
+      <c r="B95" t="n">
+        <v>14.54193115234375</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.32226824760437</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.1675171415011088</v>
+      </c>
+      <c r="E95" t="n">
+        <v>400951444906.6667</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8.323825836181641</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1.69498872756958</v>
+      </c>
+      <c r="B96" t="n">
+        <v>19.52481460571289</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3.021108150482178</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-4.419266277551651</v>
+      </c>
+      <c r="E96" t="n">
+        <v>865939752960</v>
+      </c>
+      <c r="F96" t="n">
+        <v>13.18774127960205</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.679582834243774</v>
+      </c>
+      <c r="B97" t="n">
+        <v>18.48076629638672</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3.002002716064453</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-4.986223435401916</v>
+      </c>
+      <c r="E97" t="n">
+        <v>853460729173.3334</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13.07613849639893</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.546789765357971</v>
+      </c>
+      <c r="B98" t="n">
+        <v>19.80161285400391</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.991963386535645</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-2.226157464583715</v>
+      </c>
+      <c r="E98" t="n">
+        <v>703378948266.6666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>13.24450206756592</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.568466901779175</v>
+      </c>
+      <c r="B99" t="n">
+        <v>18.59847640991211</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.975818395614624</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-3.877361752589544</v>
+      </c>
+      <c r="E99" t="n">
+        <v>730908115626.6666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>13.09938335418701</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>img_2_img</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,6 +608,156 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.650199384684635</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.549841546487047</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.845927063154587</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-17.025863275076</v>
+      </c>
+      <c r="E8" t="n">
+        <v>74.20579699019915</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.438296259627931</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.649398840206317</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.72115665740902</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.846311969011912</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-13.85090106335205</v>
+      </c>
+      <c r="E9" t="n">
+        <v>76.7589607436085</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.603958600611715</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.602368389651799</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.137053453355378</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.797113489141204</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-15.84753613848682</v>
+      </c>
+      <c r="E10" t="n">
+        <v>68.74135697687241</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.279963652550792</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.667494226630957</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.115585689989798</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.879650944482463</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-28.33762324741685</v>
+      </c>
+      <c r="E11" t="n">
+        <v>83.8340468904991</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.524771969076478</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.671502446992063</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.867125815905205</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.887019999872341</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-9.610588836361263</v>
+      </c>
+      <c r="E12" t="n">
+        <v>75.94981046870231</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.925963709580276</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.479791172042884</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.7851604103016</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.668979276069117</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-16.74079016198113</v>
+      </c>
+      <c r="E13" t="n">
+        <v>88.67995013233923</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.952100695658304</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/all_results.xlsx
+++ b/results/all_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,6 +758,31 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.413787807452381</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.736041250443368</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.593778900773314</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-10.47882089606311</v>
+      </c>
+      <c r="E14" t="n">
+        <v>78.01577306638715</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.722905425718471</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>img_wise_CNN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
